--- a/target/classes/TeamMatchVerify.xlsx
+++ b/target/classes/TeamMatchVerify.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krist\OneDrive\Skrivebord\"/>
     </mc:Choice>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="161">
   <si>
     <t>1. WS</t>
   </si>
@@ -151,12 +151,394 @@
   </si>
   <si>
     <t>Occurrences</t>
+  </si>
+  <si>
+    <t>Magnus Johannesen</t>
+  </si>
+  <si>
+    <t>Tommy Sørensen</t>
+  </si>
+  <si>
+    <t>Nicklas Mathiasen</t>
+  </si>
+  <si>
+    <t>Gabriel Ulldahl (EU)</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Malthe Mølbjerg Nielsen</t>
+  </si>
+  <si>
+    <t>Mads G. Birkeholm</t>
+  </si>
+  <si>
+    <t>Anton Nexø</t>
+  </si>
+  <si>
+    <t>Kasper Røjkjær Kjøbsted</t>
+  </si>
+  <si>
+    <t>Rasmus Madsen</t>
+  </si>
+  <si>
+    <t>Søren Hermansen</t>
+  </si>
+  <si>
+    <t>Mads Pedersen</t>
+  </si>
+  <si>
+    <t>Dennis H. Nielsen</t>
+  </si>
+  <si>
+    <t>Thomas Walther</t>
+  </si>
+  <si>
+    <t>Martin Steffensen</t>
+  </si>
+  <si>
+    <t>Kate Foo Kune</t>
+  </si>
+  <si>
+    <t>Jacob Christensen</t>
+  </si>
+  <si>
+    <t>Saili Deepak Rane</t>
+  </si>
+  <si>
+    <t>Malthe Goosmann</t>
+  </si>
+  <si>
+    <t>Emilie Aalestrup</t>
+  </si>
+  <si>
+    <t>Dennis Nielsen</t>
+  </si>
+  <si>
+    <t>Christian Bisgaard</t>
+  </si>
+  <si>
+    <t>Alexander Mikkelsen</t>
+  </si>
+  <si>
+    <t>Lasse Frederiksen</t>
+  </si>
+  <si>
+    <t>Brynjar Már Ellertsson (EU)</t>
+  </si>
+  <si>
+    <t>Martin Mylin</t>
+  </si>
+  <si>
+    <t>Rasmus Lyshøj Hansen</t>
+  </si>
+  <si>
+    <t>Jacob Dragsbæk Holm</t>
+  </si>
+  <si>
+    <t>Grzegorz Stanko (EU)</t>
+  </si>
+  <si>
+    <t>Nicklas Lennø Weesgaard</t>
+  </si>
+  <si>
+    <t>Johan Rosenblad Lauersen</t>
+  </si>
+  <si>
+    <t>Toni Woods (EU)</t>
+  </si>
+  <si>
+    <t>Anders Woo Frederiksen</t>
+  </si>
+  <si>
+    <t>Lisbeth Haagensen</t>
+  </si>
+  <si>
+    <t>Christian Aagaard Thellufsen</t>
+  </si>
+  <si>
+    <t>Gry Uhrenholt</t>
+  </si>
+  <si>
+    <t>Mathilde Bjergen</t>
+  </si>
+  <si>
+    <t>Lise Jacobsen</t>
+  </si>
+  <si>
+    <t>Karl Emil Langkilde</t>
+  </si>
+  <si>
+    <t>Patrick Weesgaard</t>
+  </si>
+  <si>
+    <t>Josefine Gudmundsen</t>
+  </si>
+  <si>
+    <t>Claus Topp</t>
+  </si>
+  <si>
+    <t>Mia Rosenberg</t>
+  </si>
+  <si>
+    <t>Anders Buus Jensen</t>
+  </si>
+  <si>
+    <t>Camilla Quist Slott</t>
+  </si>
+  <si>
+    <t>Anna Klausholm</t>
+  </si>
+  <si>
+    <t>Karoline Havgaard</t>
+  </si>
+  <si>
+    <t>Jan Sørensen</t>
+  </si>
+  <si>
+    <t>Magnus Horskjær</t>
+  </si>
+  <si>
+    <t>Ole Bjørn Jensen</t>
+  </si>
+  <si>
+    <t>Henning Lund</t>
+  </si>
+  <si>
+    <t>Stig Rantzau</t>
+  </si>
+  <si>
+    <t>Jørn Ødum Nielsen</t>
+  </si>
+  <si>
+    <t>Tanja Pedersen</t>
+  </si>
+  <si>
+    <t>Ulla Langer Jensen</t>
+  </si>
+  <si>
+    <t>Louise Nørgaard Nielsen</t>
+  </si>
+  <si>
+    <t>Dorthe Solskov Mouritsen</t>
+  </si>
+  <si>
+    <t>Mathilde Stampe Geisler</t>
+  </si>
+  <si>
+    <t>John Birknow</t>
+  </si>
+  <si>
+    <t>Kai Andersen</t>
+  </si>
+  <si>
+    <t>Emma Ellegaard Larsen</t>
+  </si>
+  <si>
+    <t>Trine Hansen</t>
+  </si>
+  <si>
+    <t>Søren Mørch Christensen</t>
+  </si>
+  <si>
+    <t>Jens Kruhøfer</t>
+  </si>
+  <si>
+    <t>Vagn Raaby</t>
+  </si>
+  <si>
+    <t>Henrik Aarup-Kristensen</t>
+  </si>
+  <si>
+    <t>Niels Rosenkilde</t>
+  </si>
+  <si>
+    <t>Carsten Thorup</t>
+  </si>
+  <si>
+    <t>Per Mouritsen</t>
+  </si>
+  <si>
+    <t>Gert Jespersgaard</t>
+  </si>
+  <si>
+    <t>Niels Rytter Poulsen</t>
+  </si>
+  <si>
+    <t>Hans Kristian Pedersen</t>
+  </si>
+  <si>
+    <t>Eline Kudahl Lyngsø</t>
+  </si>
+  <si>
+    <t>Luna Torp</t>
+  </si>
+  <si>
+    <t>Mikkel Berg</t>
+  </si>
+  <si>
+    <t>Bente Pape</t>
+  </si>
+  <si>
+    <t>Laura Schøn Christensen</t>
+  </si>
+  <si>
+    <t>Jens Erik Pedersen</t>
+  </si>
+  <si>
+    <t>Lisbeth Hermansen</t>
+  </si>
+  <si>
+    <t>Birgitte Uhrenholt</t>
+  </si>
+  <si>
+    <t>Oliver Falk</t>
+  </si>
+  <si>
+    <t>Ann Pia Madsen</t>
+  </si>
+  <si>
+    <t>Eskild Lundhus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freja Haagensen </t>
+  </si>
+  <si>
+    <t>Alberte Werther Larsen</t>
+  </si>
+  <si>
+    <t>Gitte Hagemann</t>
+  </si>
+  <si>
+    <t>Mathias Andersen</t>
+  </si>
+  <si>
+    <t>Simon Laumann Jørgensen</t>
+  </si>
+  <si>
+    <t>Tobias Leth</t>
+  </si>
+  <si>
+    <t>Henrik Jensen</t>
+  </si>
+  <si>
+    <t>Jesper Christiansen</t>
+  </si>
+  <si>
+    <t>Marie Søndergaard Laugesen</t>
+  </si>
+  <si>
+    <t>Lene Rosenkilde</t>
+  </si>
+  <si>
+    <t>Mads Mørk</t>
+  </si>
+  <si>
+    <t>Johnny Kristensen</t>
+  </si>
+  <si>
+    <t>Flemming Bang Henriksen</t>
+  </si>
+  <si>
+    <t>Anders Høngaard</t>
+  </si>
+  <si>
+    <t>Hans Henrik Hvolby</t>
+  </si>
+  <si>
+    <t>Toan Dat Ly</t>
+  </si>
+  <si>
+    <t>John Midtgaard</t>
+  </si>
+  <si>
+    <t>Sarah Haagensen</t>
+  </si>
+  <si>
+    <t>Magnus Ullits Thomsen</t>
+  </si>
+  <si>
+    <t>Linda Nielsen</t>
+  </si>
+  <si>
+    <t>Diego G. Del Campo</t>
+  </si>
+  <si>
+    <t>Christoffer Frederik Bruun Metnik</t>
+  </si>
+  <si>
+    <t>Nicklas Karlsen</t>
+  </si>
+  <si>
+    <t>William Englund-Sørensen</t>
+  </si>
+  <si>
+    <t>Oscar Hejle Pedersen</t>
+  </si>
+  <si>
+    <t>Cecilie Karlsen</t>
+  </si>
+  <si>
+    <t>Gustav Borup Andersen</t>
+  </si>
+  <si>
+    <t>Aya Marie Kirkhoff Stougaard</t>
+  </si>
+  <si>
+    <t>Silas Hejle Pedersen</t>
+  </si>
+  <si>
+    <t>Balder Lauge Grønkjær Pedersen</t>
+  </si>
+  <si>
+    <t>Lucas Hedegaard Thomsen</t>
+  </si>
+  <si>
+    <t>Alexander Kamp Otte</t>
+  </si>
+  <si>
+    <t>Lise Møller Mørch</t>
+  </si>
+  <si>
+    <t>Lucas Thomsen</t>
+  </si>
+  <si>
+    <t>Mille Larsen</t>
+  </si>
+  <si>
+    <t>Aksel Dyrby Morsing</t>
+  </si>
+  <si>
+    <t>Pelle Liberoht Kurinow</t>
+  </si>
+  <si>
+    <t>Mikkel Stensgaard</t>
+  </si>
+  <si>
+    <t>Ellen-Marie Lybæk</t>
+  </si>
+  <si>
+    <t>Sebastian Hans Moestrup</t>
+  </si>
+  <si>
+    <t>Nor Kirkhoff Stougaard</t>
+  </si>
+  <si>
+    <t>Sole Uhrenholt Hermansen</t>
+  </si>
+  <si>
+    <t>Andreas Riisager Worsaae</t>
+  </si>
+  <si>
+    <t>Christian Karlsen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1046,13 +1428,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="31.5703125" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" customWidth="1"/>
-    <col min="8" max="8" width="4.140625" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="31.5703125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="5.5703125" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="5.85546875" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="19.28515625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.140625" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="12.5703125" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="3" width="14.5703125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1731,7 +2113,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8259F9-40D9-48AB-9DC6-084747F0F304}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -1739,8 +2121,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.140625" collapsed="false"/>
+    <col min="2" max="6" bestFit="true" customWidth="true" width="11.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1763,204 +2145,2724 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4040.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4135.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3426.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3779.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3804.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3727.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3762.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3824.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3632.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2">
-        <v>3403</v>
-      </c>
-      <c r="D2">
-        <v>3438</v>
-      </c>
-      <c r="E2">
-        <v>3326</v>
-      </c>
-      <c r="F2">
-        <v>3021</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3592.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3703.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3326.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3565.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3489.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3527.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3395.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3468.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3520.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3289.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3454.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3376.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3512.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3286.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3">
-        <v>3387</v>
-      </c>
-      <c r="D3">
-        <v>3353</v>
-      </c>
-      <c r="E3">
-        <v>3426</v>
-      </c>
-      <c r="F3">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3387.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3353.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3426.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4">
-        <v>3343</v>
-      </c>
-      <c r="D4">
-        <v>3304</v>
-      </c>
-      <c r="E4">
-        <v>3363</v>
-      </c>
-      <c r="F4">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3343.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3304.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3363.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5">
-        <v>3327</v>
-      </c>
-      <c r="D5">
-        <v>3330</v>
-      </c>
-      <c r="E5">
-        <v>3323</v>
-      </c>
-      <c r="F5">
-        <v>3190</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3327.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3330.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3323.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6">
-        <v>3319</v>
-      </c>
-      <c r="D6">
-        <v>3245</v>
-      </c>
-      <c r="E6">
-        <v>3360</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3319.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3245.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3360.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7">
-        <v>3303</v>
-      </c>
-      <c r="D7">
-        <v>3347</v>
-      </c>
-      <c r="E7">
-        <v>3241</v>
-      </c>
-      <c r="F7">
-        <v>3204</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3303.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3347.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3241.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3204.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3297.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3330.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3308.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3221.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3253.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3320.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3130.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3245.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3240.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3249.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3228.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3223.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3232.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3206.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3243.0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3126.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3199.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3199.0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3186.0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3146.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3264.0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2952.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3183.0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3342.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2890.0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3179.0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3194.0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3131.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3155.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3293.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2850.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3126.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3169.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3047.0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3120.0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2860.0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3236.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3101.0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3118.0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>3048.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3090.0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3070.0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" t="n">
+        <v>3069.0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" t="n">
+        <v>3063.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3038.0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2973.0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>3073.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" t="n">
+        <v>3029.0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2988.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3052.0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2981.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" t="n">
+        <v>3020.0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3050.0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>3100.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2982.0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2945.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3028.0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2972.0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2965.0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2982.0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B37" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="1">
-        <v>2908</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2960</v>
-      </c>
-      <c r="E8">
-        <v>2942</v>
-      </c>
-      <c r="F8">
-        <v>2726</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C37" t="n">
+        <v>2908.0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2960.0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2942.0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2726.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2894.0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2787.0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2759.0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2770.0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2849.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2782.0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2873.0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2647.0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2411.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2762.0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2773.0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2743.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2756.0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2857.0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2576.0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2536.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2754.0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2800.0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2659.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2729.0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2740.0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2709.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B45" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="1">
-        <v>2651</v>
-      </c>
-      <c r="D9" s="2">
-        <v>2782</v>
-      </c>
-      <c r="E9">
-        <v>2363</v>
-      </c>
-      <c r="F9">
-        <v>2489</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C45" t="n">
+        <v>2691.0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2773.0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2591.0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2468.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2675.0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2665.0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2690.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2667.0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2681.0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2700.0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2465.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2659.0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2687.0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2604.0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B49" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="1">
-        <v>2635</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2563</v>
-      </c>
-      <c r="E10">
-        <v>2656</v>
-      </c>
-      <c r="F10">
-        <v>2645</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C49" t="n">
+        <v>2635.0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2563.0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2656.0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2645.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" t="n">
+        <v>2617.0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2611.0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2625.0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2605.0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2591.0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2674.0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2593.0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2507.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="1">
-        <v>2591</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2607</v>
-      </c>
-      <c r="E11">
-        <v>2598</v>
-      </c>
-      <c r="F11">
-        <v>2043</v>
+      <c r="C53" t="n">
+        <v>2564.0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2458.0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2682.0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2447.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2553.0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2622.0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2309.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>78</v>
+      </c>
+      <c r="B55" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2545.0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2601.0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2464.0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2160.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>79</v>
+      </c>
+      <c r="B56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2543.0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2565.0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2495.0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2550.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2542.0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2537.0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2546.0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>81</v>
+      </c>
+      <c r="B58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2539.0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2521.0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2553.0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2407.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>82</v>
+      </c>
+      <c r="B59" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2536.0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2536.0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2537.0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>83</v>
+      </c>
+      <c r="B60" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2510.0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>2513.0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2505.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>84</v>
+      </c>
+      <c r="B61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2506.0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2506.0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>85</v>
+      </c>
+      <c r="B62" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2502.0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>2515.0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2461.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>86</v>
+      </c>
+      <c r="B63" t="s">
+        <v>23</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2463.0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2497.0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>2452.0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2455.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>87</v>
+      </c>
+      <c r="B64" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2436.0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2350.0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>2534.0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2400.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>88</v>
+      </c>
+      <c r="B65" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2423.0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>2350.0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2450.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>89</v>
+      </c>
+      <c r="B66" t="s">
+        <v>38</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2421.0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>90</v>
+      </c>
+      <c r="B67" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2421.0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>2350.0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2450.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>91</v>
+      </c>
+      <c r="B68" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2417.0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2387.0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>2495.0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2370.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>92</v>
+      </c>
+      <c r="B69" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2413.0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>2452.0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>2392.0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>2443.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>93</v>
+      </c>
+      <c r="B70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2397.0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>2398.0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>2396.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>94</v>
+      </c>
+      <c r="B71" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71" t="n">
+        <v>2390.0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2350.0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>2466.0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>2334.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>95</v>
+      </c>
+      <c r="B72" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2390.0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>2350.0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>2400.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>96</v>
+      </c>
+      <c r="B73" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" t="n">
+        <v>2385.0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>2420.0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>2211.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>97</v>
+      </c>
+      <c r="B74" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74" t="n">
+        <v>2380.0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>2406.0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>2307.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>98</v>
+      </c>
+      <c r="B75" t="s">
+        <v>23</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2360.0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>2349.0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>2389.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>99</v>
+      </c>
+      <c r="B76" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2334.0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>2324.0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>2305.0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>2411.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>100</v>
+      </c>
+      <c r="B77" t="s">
+        <v>23</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2326.0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>2308.0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>2368.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>101</v>
+      </c>
+      <c r="B78" t="s">
+        <v>23</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2309.0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>2308.0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>2311.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>102</v>
+      </c>
+      <c r="B79" t="s">
+        <v>23</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2300.0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>2300.0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>2300.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>103</v>
+      </c>
+      <c r="B80" t="s">
+        <v>23</v>
+      </c>
+      <c r="C80" t="n">
+        <v>2287.0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>2261.0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>2340.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>23</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2287.0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>2337.0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>2266.0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2312.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>105</v>
+      </c>
+      <c r="B82" t="s">
+        <v>23</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2277.0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>2275.0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2285.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>106</v>
+      </c>
+      <c r="B83" t="s">
+        <v>24</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2205.0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>2117.0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>2350.0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2195.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>107</v>
+      </c>
+      <c r="B84" t="s">
+        <v>24</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2163.0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>2184.0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>2257.0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1857.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>108</v>
+      </c>
+      <c r="B85" t="s">
+        <v>23</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2095.0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>2161.0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1925.0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>109</v>
+      </c>
+      <c r="B86" t="s">
+        <v>24</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2042.0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1969.0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>2065.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>110</v>
+      </c>
+      <c r="B87" t="s">
+        <v>24</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2039.0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>2064.0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>2043.0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1952.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>111</v>
+      </c>
+      <c r="B88" t="s">
+        <v>23</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>2000.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>112</v>
+      </c>
+      <c r="B89" t="s">
+        <v>24</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1958.0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1958.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>113</v>
+      </c>
+      <c r="B90" t="s">
+        <v>24</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1926.0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1945.0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1917.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>114</v>
+      </c>
+      <c r="B91" t="s">
+        <v>23</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1880.0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1864.0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1886.0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>115</v>
+      </c>
+      <c r="B92" t="s">
+        <v>24</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1877.0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1927.0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1852.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>116</v>
+      </c>
+      <c r="B93" t="s">
+        <v>23</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1815.0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1815.0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>117</v>
+      </c>
+      <c r="B94" t="s">
+        <v>24</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1809.0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1853.0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1771.0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1521.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>118</v>
+      </c>
+      <c r="B95" t="s">
+        <v>38</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1804.0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>119</v>
+      </c>
+      <c r="B96" t="s">
+        <v>24</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>120</v>
+      </c>
+      <c r="B97" t="s">
+        <v>23</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1791.0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1791.0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>121</v>
+      </c>
+      <c r="B98" t="s">
+        <v>23</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1791.0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1788.0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>122</v>
+      </c>
+      <c r="B99" t="s">
+        <v>23</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1772.0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1850.0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1723.0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>123</v>
+      </c>
+      <c r="B100" t="s">
+        <v>23</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1750.0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1750.0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>124</v>
+      </c>
+      <c r="B101" t="s">
+        <v>23</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1738.0</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1683.0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1750.0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>125</v>
+      </c>
+      <c r="B102" t="s">
+        <v>24</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1734.0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1764.0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1722.0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1557.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>126</v>
+      </c>
+      <c r="B103" t="s">
+        <v>24</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1726.0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1818.0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1677.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>127</v>
+      </c>
+      <c r="B104" t="s">
+        <v>23</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1700.0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1700.0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>128</v>
+      </c>
+      <c r="B105" t="s">
+        <v>23</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1700.0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1700.0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>129</v>
+      </c>
+      <c r="B106" t="s">
+        <v>23</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1700.0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1700.0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>130</v>
+      </c>
+      <c r="B107" t="s">
+        <v>23</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1700.0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1700.0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1700.0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>131</v>
+      </c>
+      <c r="B108" t="s">
+        <v>23</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1700.0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>1700.0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>132</v>
+      </c>
+      <c r="B109" t="s">
+        <v>23</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1700.0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1700.0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>133</v>
+      </c>
+      <c r="B110" t="s">
+        <v>23</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1700.0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1700.0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>134</v>
+      </c>
+      <c r="B111" t="s">
+        <v>38</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1616.0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>135</v>
+      </c>
+      <c r="B112" t="s">
+        <v>23</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1544.0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1555.0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1517.0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>136</v>
+      </c>
+      <c r="B113" t="s">
+        <v>24</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1400.0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1400.0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1400.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>137</v>
+      </c>
+      <c r="B114" t="s">
+        <v>23</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1320.0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1347.0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1233.0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>138</v>
+      </c>
+      <c r="B115" t="s">
+        <v>23</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1265.0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1324.0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1128.0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>139</v>
+      </c>
+      <c r="B116" t="s">
+        <v>23</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1204.0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1227.0</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1083.0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>140</v>
+      </c>
+      <c r="B117" t="s">
+        <v>23</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1200.0</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1200.0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>141</v>
+      </c>
+      <c r="B118" t="s">
+        <v>23</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1096.0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1111.0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1043.0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1047.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>142</v>
+      </c>
+      <c r="B119" t="s">
+        <v>24</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1081.0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1099.0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1029.0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1006.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>143</v>
+      </c>
+      <c r="B120" t="s">
+        <v>23</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1019.0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1023.0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1011.0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>144</v>
+      </c>
+      <c r="B121" t="s">
+        <v>24</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1003.0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1033.0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>914.0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>933.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>145</v>
+      </c>
+      <c r="B122" t="s">
+        <v>23</v>
+      </c>
+      <c r="C122" t="n">
+        <v>931.0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>937.0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>894.0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>146</v>
+      </c>
+      <c r="B123" t="s">
+        <v>23</v>
+      </c>
+      <c r="C123" t="n">
+        <v>919.0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>942.0</v>
+      </c>
+      <c r="E123" t="n">
+        <v>844.0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>800.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>147</v>
+      </c>
+      <c r="B124" t="s">
+        <v>23</v>
+      </c>
+      <c r="C124" t="n">
+        <v>909.0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>932.0</v>
+      </c>
+      <c r="E124" t="n">
+        <v>806.0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>148</v>
+      </c>
+      <c r="B125" t="s">
+        <v>23</v>
+      </c>
+      <c r="C125" t="n">
+        <v>892.0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>912.0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>822.0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>149</v>
+      </c>
+      <c r="B126" t="s">
+        <v>24</v>
+      </c>
+      <c r="C126" t="n">
+        <v>891.0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>879.0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>880.0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>957.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>150</v>
+      </c>
+      <c r="B127" t="s">
+        <v>23</v>
+      </c>
+      <c r="C127" t="n">
+        <v>863.0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>890.0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>788.0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>151</v>
+      </c>
+      <c r="B128" t="s">
+        <v>24</v>
+      </c>
+      <c r="C128" t="n">
+        <v>861.0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>862.0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>854.0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>890.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>152</v>
+      </c>
+      <c r="B129" t="s">
+        <v>23</v>
+      </c>
+      <c r="C129" t="n">
+        <v>828.0</v>
+      </c>
+      <c r="D129" t="n">
+        <v>839.0</v>
+      </c>
+      <c r="E129" t="n">
+        <v>803.0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>153</v>
+      </c>
+      <c r="B130" t="s">
+        <v>23</v>
+      </c>
+      <c r="C130" t="n">
+        <v>814.0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>834.0</v>
+      </c>
+      <c r="E130" t="n">
+        <v>753.0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>154</v>
+      </c>
+      <c r="B131" t="s">
+        <v>23</v>
+      </c>
+      <c r="C131" t="n">
+        <v>814.0</v>
+      </c>
+      <c r="D131" t="n">
+        <v>814.0</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>155</v>
+      </c>
+      <c r="B132" t="s">
+        <v>24</v>
+      </c>
+      <c r="C132" t="n">
+        <v>806.0</v>
+      </c>
+      <c r="D132" t="n">
+        <v>833.0</v>
+      </c>
+      <c r="E132" t="n">
+        <v>753.0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>156</v>
+      </c>
+      <c r="B133" t="s">
+        <v>23</v>
+      </c>
+      <c r="C133" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="D133" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="E133" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>157</v>
+      </c>
+      <c r="B134" t="s">
+        <v>23</v>
+      </c>
+      <c r="C134" t="n">
+        <v>730.0</v>
+      </c>
+      <c r="D134" t="n">
+        <v>717.0</v>
+      </c>
+      <c r="E134" t="n">
+        <v>762.0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>158</v>
+      </c>
+      <c r="B135" t="s">
+        <v>24</v>
+      </c>
+      <c r="C135" t="n">
+        <v>699.0</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>159</v>
+      </c>
+      <c r="B136" t="s">
+        <v>23</v>
+      </c>
+      <c r="C136" t="n">
+        <v>671.0</v>
+      </c>
+      <c r="D136" t="n">
+        <v>676.0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>661.0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>160</v>
+      </c>
+      <c r="B137" t="s">
+        <v>38</v>
+      </c>
+      <c r="C137" t="n">
+        <v>606.0</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/TeamMatchVerify.xlsx
+++ b/target/classes/TeamMatchVerify.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krist\OneDrive\Skrivebord\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Team-match-verify\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3425BC-2D03-42B4-A8B0-68B00D9FB337}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AD4B61-A68E-4B4B-8A7C-AE61C96DC93E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BEABDDE-1E11-4A13-BD8F-012D9F57800C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1BEABDDE-1E11-4A13-BD8F-012D9F57800C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="RankList" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="1" hidden="1">RankList!$A$1:$F$11</definedName>
+    <definedName name="ExternalData_1" localSheetId="1" hidden="1">RankList!$A$1:$F$14</definedName>
     <definedName name="PlayerNames">RankList[Name]</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13396" uniqueCount="161">
   <si>
     <t>1. WS</t>
   </si>
@@ -123,82 +123,82 @@
     <t>m</t>
   </si>
   <si>
+    <t>Level points</t>
+  </si>
+  <si>
+    <t>Singles points</t>
+  </si>
+  <si>
+    <t>Doubles points</t>
+  </si>
+  <si>
+    <t>Mixed points</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Points difference</t>
+  </si>
+  <si>
+    <t>Correct sex</t>
+  </si>
+  <si>
+    <t>Occurrences</t>
+  </si>
+  <si>
+    <t>Magnus Johannesen</t>
+  </si>
+  <si>
+    <t>Tommy Sørensen</t>
+  </si>
+  <si>
+    <t>Nicklas Mathiasen</t>
+  </si>
+  <si>
+    <t>Gabriel Ulldahl (EU)</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Malthe Mølbjerg Nielsen</t>
+  </si>
+  <si>
+    <t>Mads G. Birkeholm</t>
+  </si>
+  <si>
+    <t>Anton Nexø</t>
+  </si>
+  <si>
+    <t>Kasper Røjkjær Kjøbsted</t>
+  </si>
+  <si>
+    <t>Rasmus Madsen</t>
+  </si>
+  <si>
+    <t>Søren Hermansen</t>
+  </si>
+  <si>
+    <t>Mads Pedersen</t>
+  </si>
+  <si>
+    <t>Dennis H. Nielsen</t>
+  </si>
+  <si>
+    <t>Thomas Walther</t>
+  </si>
+  <si>
+    <t>Martin Steffensen</t>
+  </si>
+  <si>
+    <t>Kate Foo Kune</t>
+  </si>
+  <si>
     <t>w</t>
-  </si>
-  <si>
-    <t>Level points</t>
-  </si>
-  <si>
-    <t>Singles points</t>
-  </si>
-  <si>
-    <t>Doubles points</t>
-  </si>
-  <si>
-    <t>Mixed points</t>
-  </si>
-  <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Points difference</t>
-  </si>
-  <si>
-    <t>Correct sex</t>
-  </si>
-  <si>
-    <t>Occurrences</t>
-  </si>
-  <si>
-    <t>Magnus Johannesen</t>
-  </si>
-  <si>
-    <t>Tommy Sørensen</t>
-  </si>
-  <si>
-    <t>Nicklas Mathiasen</t>
-  </si>
-  <si>
-    <t>Gabriel Ulldahl (EU)</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Malthe Mølbjerg Nielsen</t>
-  </si>
-  <si>
-    <t>Mads G. Birkeholm</t>
-  </si>
-  <si>
-    <t>Anton Nexø</t>
-  </si>
-  <si>
-    <t>Kasper Røjkjær Kjøbsted</t>
-  </si>
-  <si>
-    <t>Rasmus Madsen</t>
-  </si>
-  <si>
-    <t>Søren Hermansen</t>
-  </si>
-  <si>
-    <t>Mads Pedersen</t>
-  </si>
-  <si>
-    <t>Dennis H. Nielsen</t>
-  </si>
-  <si>
-    <t>Thomas Walther</t>
-  </si>
-  <si>
-    <t>Martin Steffensen</t>
-  </si>
-  <si>
-    <t>Kate Foo Kune</t>
   </si>
   <si>
     <t>Jacob Christensen</t>
@@ -539,19 +539,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -897,22 +891,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -935,10 +925,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -946,17 +936,17 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -977,29 +967,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -1014,6 +982,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1106,8 +1096,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{67A2C027-01A2-4306-9475-8D7A9D288AF3}" name="RankList" displayName="RankList" ref="A1:F11" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F11" xr:uid="{A7815156-8B1B-41A3-9268-4451DCE0A923}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{67A2C027-01A2-4306-9475-8D7A9D288AF3}" name="RankList" displayName="RankList" ref="A1:F14" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F14" xr:uid="{A7815156-8B1B-41A3-9268-4451DCE0A923}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F7">
     <sortCondition descending="1" ref="C1:C7"/>
   </sortState>
@@ -1422,463 +1412,463 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6C28B2-4096-4F62-8A60-1FF17FE97E75}">
   <dimension ref="B1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="31.5703125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="5.5703125" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="5.85546875" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="19.28515625" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="4.140625" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="12.5703125" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" style="3" width="14.5703125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="31.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="5.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="5.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="14.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="23"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="22" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="10"/>
+      <c r="I1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="2" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="15">
+      <c r="D2" s="34"/>
+      <c r="E2" s="13">
         <f>INDEX(RankList[],MATCH(C2,RankList[Name],0),6)</f>
-        <v>3190</v>
-      </c>
-      <c r="F2" s="34">
+        <v>0</v>
+      </c>
+      <c r="F2" s="27" t="e">
         <f>E2+E3</f>
-        <v>5916</v>
-      </c>
-      <c r="G2" s="32">
+        <v>#N/A</v>
+      </c>
+      <c r="G2" s="32" t="e">
         <f>(F2+100)-F4</f>
-        <v>171</v>
-      </c>
-      <c r="H2" s="20" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="H2" s="18" t="str">
         <f>INDEX(RankList[],MATCH(C2,RankList[Name],0),2)</f>
         <v>m</v>
       </c>
-      <c r="I2" s="29">
+      <c r="I2" s="33" t="e">
         <f>IF(H2=H3,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="J2" s="8">
         <f>COUNTIF($C$2:$C$21,C2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="39"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="15">
+      <c r="D3" s="35"/>
+      <c r="E3" s="13" t="e">
         <f>INDEX(RankList[],MATCH(C3,RankList[Name],0),6)</f>
-        <v>2726</v>
-      </c>
-      <c r="F3" s="34"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F3" s="27"/>
       <c r="G3" s="32"/>
-      <c r="H3" s="20" t="str">
+      <c r="H3" s="18" t="e">
         <f>INDEX(RankList[],MATCH(C3,RankList[Name],0),2)</f>
-        <v>w</v>
-      </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="26">
+        <v>#N/A</v>
+      </c>
+      <c r="I3" s="33"/>
+      <c r="J3" s="24">
         <f t="shared" ref="J3:J21" si="0">COUNTIF($C$2:$C$21,C3)</f>
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="15">
+      <c r="D4" s="34"/>
+      <c r="E4" s="13">
         <f>INDEX(RankList[],MATCH(C4,RankList[Name],0),6)</f>
-        <v>3200</v>
-      </c>
-      <c r="F4" s="34">
+        <v>0</v>
+      </c>
+      <c r="F4" s="27" t="e">
         <f>E4+E5</f>
-        <v>5845</v>
+        <v>#N/A</v>
       </c>
       <c r="G4" s="32"/>
-      <c r="H4" s="20" t="str">
+      <c r="H4" s="18" t="str">
         <f>INDEX(RankList[],MATCH(C4,RankList[Name],0),2)</f>
         <v>m</v>
       </c>
-      <c r="I4" s="29">
+      <c r="I4" s="33" t="e">
         <f>IF(H4=H5,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="26">
+        <v>#N/A</v>
+      </c>
+      <c r="J4" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="37"/>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="15">
+      <c r="D5" s="35"/>
+      <c r="E5" s="13" t="e">
         <f>INDEX(RankList[],MATCH(C5,RankList[Name],0),6)</f>
-        <v>2645</v>
-      </c>
-      <c r="F5" s="34"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F5" s="27"/>
       <c r="G5" s="32"/>
-      <c r="H5" s="20" t="str">
+      <c r="H5" s="18" t="e">
         <f>INDEX(RankList[],MATCH(C5,RankList[Name],0),2)</f>
-        <v>w</v>
-      </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="26">
+        <v>#N/A</v>
+      </c>
+      <c r="I5" s="33"/>
+      <c r="J5" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="15">
+      <c r="D6" s="17"/>
+      <c r="E6" s="13" t="e">
         <f>INDEX(RankList[],MATCH(C6,RankList[Name],0),4)</f>
-        <v>2782</v>
-      </c>
-      <c r="F6" s="16">
+        <v>#N/A</v>
+      </c>
+      <c r="F6" s="14" t="e">
         <f>E6</f>
-        <v>2782</v>
-      </c>
-      <c r="G6" s="17">
+        <v>#N/A</v>
+      </c>
+      <c r="G6" s="15" t="e">
         <f>F6-F7</f>
-        <v>175</v>
-      </c>
-      <c r="H6" s="20" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="H6" s="18" t="e">
         <f>INDEX(RankList[],MATCH(C6,RankList[Name],0),2)</f>
-        <v>w</v>
-      </c>
-      <c r="I6" s="27">
+        <v>#N/A</v>
+      </c>
+      <c r="I6" s="25" t="e">
         <f>IF(H6&lt;&gt;"W",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="26">
+        <v>#N/A</v>
+      </c>
+      <c r="J6" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="15">
+      <c r="D7" s="17"/>
+      <c r="E7" s="13" t="e">
         <f>INDEX(RankList[],MATCH(C7,RankList[Name],0),4)</f>
-        <v>2607</v>
-      </c>
-      <c r="F7" s="16">
+        <v>#N/A</v>
+      </c>
+      <c r="F7" s="14" t="e">
         <f t="shared" ref="F7:F11" si="1">E7</f>
-        <v>2607</v>
-      </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="20" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="18" t="e">
         <f>INDEX(RankList[],MATCH(C7,RankList[Name],0),2)</f>
-        <v>w</v>
-      </c>
-      <c r="I7" s="27">
+        <v>#N/A</v>
+      </c>
+      <c r="I7" s="25" t="e">
         <f>IF(H7&lt;&gt;"W",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="26">
+        <v>#N/A</v>
+      </c>
+      <c r="J7" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="15">
+      <c r="D8" s="17"/>
+      <c r="E8" s="13">
         <f>INDEX(RankList[],MATCH(C8,RankList[Name],0),4)</f>
-        <v>3438</v>
-      </c>
-      <c r="F8" s="16">
+        <v>3703</v>
+      </c>
+      <c r="F8" s="14">
         <f t="shared" si="1"/>
-        <v>3438</v>
-      </c>
-      <c r="G8" s="17">
+        <v>3703</v>
+      </c>
+      <c r="G8" s="15">
         <f>F8-F9</f>
-        <v>85</v>
-      </c>
-      <c r="H8" s="20" t="str">
+        <v>350</v>
+      </c>
+      <c r="H8" s="18" t="str">
         <f>INDEX(RankList[],MATCH(C8,RankList[Name],0),2)</f>
         <v>m</v>
       </c>
-      <c r="I8" s="27">
+      <c r="I8" s="25">
         <f>IF(H8&lt;&gt;"m",1,0)</f>
         <v>0</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J8" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="15">
+      <c r="D9" s="17"/>
+      <c r="E9" s="13">
         <f>INDEX(RankList[],MATCH(C9,RankList[Name],0),4)</f>
         <v>3353</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="14">
         <f t="shared" si="1"/>
         <v>3353</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="15">
         <f t="shared" ref="G9:G10" si="2">F9-F10</f>
         <v>6</v>
       </c>
-      <c r="H9" s="20" t="str">
+      <c r="H9" s="18" t="str">
         <f>INDEX(RankList[],MATCH(C9,RankList[Name],0),2)</f>
         <v>m</v>
       </c>
-      <c r="I9" s="27">
+      <c r="I9" s="25">
         <f t="shared" ref="I9:I11" si="3">IF(H9&lt;&gt;"m",1,0)</f>
         <v>0</v>
       </c>
-      <c r="J9" s="26">
+      <c r="J9" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="15">
+      <c r="D10" s="17"/>
+      <c r="E10" s="13">
         <f>INDEX(RankList[],MATCH(C10,RankList[Name],0),4)</f>
         <v>3347</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="14">
         <f t="shared" si="1"/>
         <v>3347</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="15">
         <f t="shared" si="2"/>
         <v>102</v>
       </c>
-      <c r="H10" s="20" t="str">
+      <c r="H10" s="18" t="str">
         <f>INDEX(RankList[],MATCH(C10,RankList[Name],0),2)</f>
         <v>m</v>
       </c>
-      <c r="I10" s="27">
+      <c r="I10" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J10" s="26">
+      <c r="J10" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="15">
+      <c r="D11" s="17"/>
+      <c r="E11" s="13">
         <f>INDEX(RankList[],MATCH(C11,RankList[Name],0),4)</f>
         <v>3245</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="14">
         <f t="shared" si="1"/>
         <v>3245</v>
       </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="20" t="str">
+      <c r="G11" s="15"/>
+      <c r="H11" s="18" t="str">
         <f>INDEX(RankList[],MATCH(C11,RankList[Name],0),2)</f>
         <v>m</v>
       </c>
-      <c r="I11" s="27">
+      <c r="I11" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="15">
+      <c r="D12" s="34"/>
+      <c r="E12" s="13" t="e">
         <f>INDEX(RankList[],MATCH(C12,RankList[Name],0),5)</f>
-        <v>2942</v>
-      </c>
-      <c r="F12" s="34">
+        <v>#N/A</v>
+      </c>
+      <c r="F12" s="27" t="e">
         <f t="shared" ref="F12" si="4">E12+E13</f>
-        <v>5305</v>
-      </c>
-      <c r="G12" s="32">
+        <v>#N/A</v>
+      </c>
+      <c r="G12" s="32" t="e">
         <f>F12-F14</f>
-        <v>51</v>
-      </c>
-      <c r="H12" s="20" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="H12" s="18" t="e">
         <f>INDEX(RankList[],MATCH(C12,RankList[Name],0),2)</f>
-        <v>w</v>
-      </c>
-      <c r="I12" s="27">
+        <v>#N/A</v>
+      </c>
+      <c r="I12" s="25" t="e">
         <f t="shared" ref="I12:I15" si="5">IF(H12&lt;&gt;"W",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="26">
+        <v>#N/A</v>
+      </c>
+      <c r="J12" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="39"/>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="31"/>
+      <c r="C13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="15">
+      <c r="D13" s="35"/>
+      <c r="E13" s="13" t="e">
         <f>INDEX(RankList[],MATCH(C13,RankList[Name],0),5)</f>
-        <v>2363</v>
-      </c>
-      <c r="F13" s="34"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F13" s="27"/>
       <c r="G13" s="32"/>
-      <c r="H13" s="20" t="str">
+      <c r="H13" s="18" t="e">
         <f>INDEX(RankList[],MATCH(C13,RankList[Name],0),2)</f>
-        <v>w</v>
-      </c>
-      <c r="I13" s="27">
+        <v>#N/A</v>
+      </c>
+      <c r="I13" s="25" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="26">
+        <v>#N/A</v>
+      </c>
+      <c r="J13" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="15">
+      <c r="D14" s="34"/>
+      <c r="E14" s="13" t="e">
         <f>INDEX(RankList[],MATCH(C14,RankList[Name],0),5)</f>
-        <v>2656</v>
-      </c>
-      <c r="F14" s="34">
+        <v>#N/A</v>
+      </c>
+      <c r="F14" s="27" t="e">
         <f t="shared" ref="F14" si="6">E14+E15</f>
-        <v>5254</v>
+        <v>#N/A</v>
       </c>
       <c r="G14" s="32"/>
-      <c r="H14" s="20" t="str">
+      <c r="H14" s="18" t="e">
         <f>INDEX(RankList[],MATCH(C14,RankList[Name],0),2)</f>
-        <v>w</v>
-      </c>
-      <c r="I14" s="27">
+        <v>#N/A</v>
+      </c>
+      <c r="I14" s="25" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="26">
+        <v>#N/A</v>
+      </c>
+      <c r="J14" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="37"/>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="29"/>
+      <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="15">
+      <c r="D15" s="35"/>
+      <c r="E15" s="13" t="e">
         <f>INDEX(RankList[],MATCH(C15,RankList[Name],0),5)</f>
-        <v>2598</v>
-      </c>
-      <c r="F15" s="34"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F15" s="27"/>
       <c r="G15" s="32"/>
-      <c r="H15" s="20" t="str">
+      <c r="H15" s="18" t="e">
         <f>INDEX(RankList[],MATCH(C15,RankList[Name],0),2)</f>
-        <v>w</v>
-      </c>
-      <c r="I15" s="27">
+        <v>#N/A</v>
+      </c>
+      <c r="I15" s="25" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="26">
+        <v>#N/A</v>
+      </c>
+      <c r="J15" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="15">
+      <c r="D16" s="34"/>
+      <c r="E16" s="13">
         <f>INDEX(RankList[],MATCH(C16,RankList[Name],0),5)</f>
         <v>3363</v>
       </c>
-      <c r="F16" s="34">
+      <c r="F16" s="27">
         <f t="shared" ref="F16" si="7">E16+E17</f>
         <v>6686</v>
       </c>
@@ -1886,57 +1876,57 @@
         <f>F16-F18</f>
         <v>-66</v>
       </c>
-      <c r="H16" s="20" t="str">
+      <c r="H16" s="18" t="str">
         <f>INDEX(RankList[],MATCH(C16,RankList[Name],0),2)</f>
         <v>m</v>
       </c>
-      <c r="I16" s="27">
+      <c r="I16" s="25">
         <f>IF(H16&lt;&gt;"m",1,0)</f>
         <v>0</v>
       </c>
-      <c r="J16" s="26">
+      <c r="J16" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="39"/>
-      <c r="C17" s="5" t="s">
+      <c r="B17" s="31"/>
+      <c r="C17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="15">
+      <c r="D17" s="35"/>
+      <c r="E17" s="13">
         <f>INDEX(RankList[],MATCH(C17,RankList[Name],0),5)</f>
         <v>3323</v>
       </c>
-      <c r="F17" s="34"/>
+      <c r="F17" s="27"/>
       <c r="G17" s="32"/>
-      <c r="H17" s="20" t="str">
+      <c r="H17" s="18" t="str">
         <f>INDEX(RankList[],MATCH(C17,RankList[Name],0),2)</f>
         <v>m</v>
       </c>
-      <c r="I17" s="27">
+      <c r="I17" s="25">
         <f t="shared" ref="I17:I21" si="8">IF(H17&lt;&gt;"m",1,0)</f>
         <v>0</v>
       </c>
-      <c r="J17" s="26">
+      <c r="J17" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="15">
+      <c r="D18" s="34"/>
+      <c r="E18" s="13">
         <f>INDEX(RankList[],MATCH(C18,RankList[Name],0),5)</f>
         <v>3326</v>
       </c>
-      <c r="F18" s="34">
+      <c r="F18" s="27">
         <f t="shared" ref="F18" si="9">E18+E19</f>
         <v>6752</v>
       </c>
@@ -1944,115 +1934,101 @@
         <f>F18-F20</f>
         <v>151</v>
       </c>
-      <c r="H18" s="20" t="str">
+      <c r="H18" s="18" t="str">
         <f>INDEX(RankList[],MATCH(C18,RankList[Name],0),2)</f>
         <v>m</v>
       </c>
-      <c r="I18" s="27">
+      <c r="I18" s="25">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J18" s="26">
+      <c r="J18" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="39"/>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="31"/>
+      <c r="C19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="15">
+      <c r="D19" s="35"/>
+      <c r="E19" s="13">
         <f>INDEX(RankList[],MATCH(C19,RankList[Name],0),5)</f>
         <v>3426</v>
       </c>
-      <c r="F19" s="34"/>
+      <c r="F19" s="27"/>
       <c r="G19" s="32"/>
-      <c r="H19" s="20" t="str">
+      <c r="H19" s="18" t="str">
         <f>INDEX(RankList[],MATCH(C19,RankList[Name],0),2)</f>
         <v>m</v>
       </c>
-      <c r="I19" s="27">
+      <c r="I19" s="25">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J19" s="26">
+      <c r="J19" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="15">
+      <c r="D20" s="34"/>
+      <c r="E20" s="13">
         <f>INDEX(RankList[],MATCH(C20,RankList[Name],0),5)</f>
         <v>3241</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F20" s="27">
         <f t="shared" ref="F20" si="10">E20+E21</f>
         <v>6601</v>
       </c>
       <c r="G20" s="32"/>
-      <c r="H20" s="20" t="str">
+      <c r="H20" s="18" t="str">
         <f>INDEX(RankList[],MATCH(C20,RankList[Name],0),2)</f>
         <v>m</v>
       </c>
-      <c r="I20" s="27">
+      <c r="I20" s="25">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J20" s="26">
+      <c r="J20" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="37"/>
-      <c r="C21" s="6" t="s">
+      <c r="B21" s="29"/>
+      <c r="C21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="18">
+      <c r="D21" s="35"/>
+      <c r="E21" s="16">
         <f>INDEX(RankList[],MATCH(C21,RankList[Name],0),5)</f>
         <v>3360</v>
       </c>
-      <c r="F21" s="35"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="21" t="str">
+      <c r="F21" s="37"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="19" t="str">
         <f>INDEX(RankList[],MATCH(C21,RankList[Name],0),2)</f>
         <v>m</v>
       </c>
-      <c r="I21" s="28">
+      <c r="I21" s="26">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J21" s="11">
+      <c r="J21" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F14:F15"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="D16:D17"/>
@@ -2069,6 +2045,20 @@
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
   </mergeCells>
   <conditionalFormatting sqref="F2 F4 F6:F12 F14 F16 F18">
     <cfRule type="expression" dxfId="6" priority="7">
@@ -2115,39 +2105,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8259F9-40D9-48AB-9DC6-084747F0F304}">
   <dimension ref="A1:F137"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.140625" collapsed="false"/>
-    <col min="2" max="6" bestFit="true" customWidth="true" width="11.140625" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="2" max="6" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>27</v>
-      </c>
-      <c r="F1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
@@ -2167,7 +2157,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -2187,7 +2177,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -2227,10 +2217,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
         <v>37</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
       </c>
       <c r="C6" t="n">
         <v>3565.0</v>
@@ -2247,7 +2237,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -2267,7 +2257,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -2287,7 +2277,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -2407,7 +2397,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
@@ -2427,7 +2417,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
@@ -2447,7 +2437,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
@@ -2467,7 +2457,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
@@ -2487,7 +2477,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
@@ -2507,7 +2497,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
@@ -2527,7 +2517,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
         <v>23</v>
@@ -2547,10 +2537,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" t="s">
         <v>49</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
       </c>
       <c r="C22" t="n">
         <v>3183.0</v>
@@ -2590,7 +2580,7 @@
         <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C24" t="n">
         <v>3155.0</v>
@@ -2630,7 +2620,7 @@
         <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C26" t="n">
         <v>3120.0</v>
@@ -2670,7 +2660,7 @@
         <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" t="n">
         <v>3090.0</v>
@@ -2690,7 +2680,7 @@
         <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" t="n">
         <v>3070.0</v>
@@ -2710,7 +2700,7 @@
         <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" t="n">
         <v>3069.0</v>
@@ -2730,7 +2720,7 @@
         <v>58</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" t="n">
         <v>3063.0</v>
@@ -2850,7 +2840,7 @@
         <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C37" t="n">
         <v>2908.0</v>
@@ -2870,7 +2860,7 @@
         <v>64</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38" t="n">
         <v>2894.0</v>
@@ -2890,7 +2880,7 @@
         <v>65</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C39" t="n">
         <v>2787.0</v>
@@ -2930,7 +2920,7 @@
         <v>67</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C41" t="n">
         <v>2762.0</v>
@@ -2970,7 +2960,7 @@
         <v>69</v>
       </c>
       <c r="B43" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C43" t="n">
         <v>2754.0</v>
@@ -2990,7 +2980,7 @@
         <v>70</v>
       </c>
       <c r="B44" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C44" t="n">
         <v>2729.0</v>
@@ -3010,7 +3000,7 @@
         <v>20</v>
       </c>
       <c r="B45" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C45" t="n">
         <v>2691.0</v>
@@ -3030,7 +3020,7 @@
         <v>71</v>
       </c>
       <c r="B46" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C46" t="n">
         <v>2675.0</v>
@@ -3070,7 +3060,7 @@
         <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C48" t="n">
         <v>2659.0</v>
@@ -3090,7 +3080,7 @@
         <v>22</v>
       </c>
       <c r="B49" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C49" t="n">
         <v>2635.0</v>
@@ -3130,7 +3120,7 @@
         <v>74</v>
       </c>
       <c r="B51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C51" t="n">
         <v>2605.0</v>
@@ -3170,7 +3160,7 @@
         <v>76</v>
       </c>
       <c r="B53" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C53" t="n">
         <v>2564.0</v>
@@ -3210,7 +3200,7 @@
         <v>78</v>
       </c>
       <c r="B55" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C55" t="n">
         <v>2545.0</v>
@@ -3230,7 +3220,7 @@
         <v>79</v>
       </c>
       <c r="B56" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C56" t="n">
         <v>2543.0</v>
@@ -3250,7 +3240,7 @@
         <v>80</v>
       </c>
       <c r="B57" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C57" t="n">
         <v>2542.0</v>
@@ -3390,7 +3380,7 @@
         <v>87</v>
       </c>
       <c r="B64" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C64" t="n">
         <v>2436.0</v>
@@ -3410,7 +3400,7 @@
         <v>88</v>
       </c>
       <c r="B65" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C65" t="n">
         <v>2423.0</v>
@@ -3430,7 +3420,7 @@
         <v>89</v>
       </c>
       <c r="B66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C66" t="n">
         <v>2421.0</v>
@@ -3450,7 +3440,7 @@
         <v>90</v>
       </c>
       <c r="B67" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C67" t="n">
         <v>2421.0</v>
@@ -3470,7 +3460,7 @@
         <v>91</v>
       </c>
       <c r="B68" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C68" t="n">
         <v>2417.0</v>
@@ -3530,7 +3520,7 @@
         <v>94</v>
       </c>
       <c r="B71" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C71" t="n">
         <v>2390.0</v>
@@ -3550,7 +3540,7 @@
         <v>95</v>
       </c>
       <c r="B72" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C72" t="n">
         <v>2390.0</v>
@@ -3770,7 +3760,7 @@
         <v>106</v>
       </c>
       <c r="B83" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C83" t="n">
         <v>2205.0</v>
@@ -3790,7 +3780,7 @@
         <v>107</v>
       </c>
       <c r="B84" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C84" t="n">
         <v>2163.0</v>
@@ -3830,7 +3820,7 @@
         <v>109</v>
       </c>
       <c r="B86" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C86" t="n">
         <v>2042.0</v>
@@ -3850,7 +3840,7 @@
         <v>110</v>
       </c>
       <c r="B87" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C87" t="n">
         <v>2039.0</v>
@@ -3890,7 +3880,7 @@
         <v>112</v>
       </c>
       <c r="B89" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C89" t="n">
         <v>1958.0</v>
@@ -3910,7 +3900,7 @@
         <v>113</v>
       </c>
       <c r="B90" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C90" t="n">
         <v>1926.0</v>
@@ -3950,7 +3940,7 @@
         <v>115</v>
       </c>
       <c r="B92" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C92" t="n">
         <v>1877.0</v>
@@ -3990,7 +3980,7 @@
         <v>117</v>
       </c>
       <c r="B94" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C94" t="n">
         <v>1809.0</v>
@@ -4010,7 +4000,7 @@
         <v>118</v>
       </c>
       <c r="B95" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C95" t="n">
         <v>1804.0</v>
@@ -4030,7 +4020,7 @@
         <v>119</v>
       </c>
       <c r="B96" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C96" t="n">
         <v>1800.0</v>
@@ -4150,7 +4140,7 @@
         <v>125</v>
       </c>
       <c r="B102" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C102" t="n">
         <v>1734.0</v>
@@ -4170,7 +4160,7 @@
         <v>126</v>
       </c>
       <c r="B103" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C103" t="n">
         <v>1726.0</v>
@@ -4330,7 +4320,7 @@
         <v>134</v>
       </c>
       <c r="B111" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C111" t="n">
         <v>1616.0</v>
@@ -4370,7 +4360,7 @@
         <v>136</v>
       </c>
       <c r="B113" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C113" t="n">
         <v>1400.0</v>
@@ -4490,7 +4480,7 @@
         <v>142</v>
       </c>
       <c r="B119" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C119" t="n">
         <v>1081.0</v>
@@ -4530,7 +4520,7 @@
         <v>144</v>
       </c>
       <c r="B121" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C121" t="n">
         <v>1003.0</v>
@@ -4630,7 +4620,7 @@
         <v>149</v>
       </c>
       <c r="B126" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C126" t="n">
         <v>891.0</v>
@@ -4670,7 +4660,7 @@
         <v>151</v>
       </c>
       <c r="B128" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C128" t="n">
         <v>861.0</v>
@@ -4750,7 +4740,7 @@
         <v>155</v>
       </c>
       <c r="B132" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C132" t="n">
         <v>806.0</v>
@@ -4810,7 +4800,7 @@
         <v>158</v>
       </c>
       <c r="B135" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C135" t="n">
         <v>699.0</v>
@@ -4850,7 +4840,7 @@
         <v>160</v>
       </c>
       <c r="B137" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C137" t="n">
         <v>606.0</v>

--- a/target/classes/TeamMatchVerify.xlsx
+++ b/target/classes/TeamMatchVerify.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Team-match-verify\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Team-match-verify\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AD4B61-A68E-4B4B-8A7C-AE61C96DC93E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA7E3CC-4FC7-4A21-BB85-14CE81C3458F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1BEABDDE-1E11-4A13-BD8F-012D9F57800C}"/>
   </bookViews>
@@ -17,12 +17,12 @@
     <sheet name="RankList" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="1" hidden="1">RankList!$A$1:$F$14</definedName>
+    <definedName name="ExternalData_1" localSheetId="1" hidden="1">'RankList'!$A$1:$F$137</definedName>
     <definedName name="PlayerNames">RankList[Name]</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13396" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="161">
   <si>
     <t>1. WS</t>
   </si>
@@ -538,7 +538,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -967,7 +966,29 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -982,28 +1003,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1096,8 +1095,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{67A2C027-01A2-4306-9475-8D7A9D288AF3}" name="RankList" displayName="RankList" ref="A1:F14" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F14" xr:uid="{A7815156-8B1B-41A3-9268-4451DCE0A923}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{67A2C027-01A2-4306-9475-8D7A9D288AF3}" name="RankList" displayName="RankList" ref="A1:F137" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F137" xr:uid="{A7815156-8B1B-41A3-9268-4451DCE0A923}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F7">
     <sortCondition descending="1" ref="C1:C7"/>
   </sortState>
@@ -1418,13 +1417,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="31.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="5.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="5.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="4.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="1" width="14.5703125" collapsed="true"/>
+    <col min="3" max="3" width="31.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="5.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="5.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="4.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1445,32 +1444,32 @@
       </c>
     </row>
     <row r="2" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="36" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="34"/>
+      <c r="D2" s="28"/>
       <c r="E2" s="13">
         <f>INDEX(RankList[],MATCH(C2,RankList[Name],0),6)</f>
         <v>0</v>
       </c>
-      <c r="F2" s="27" t="e">
+      <c r="F2" s="32">
         <f>E2+E3</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G2" s="32" t="e">
+        <v>2726</v>
+      </c>
+      <c r="G2" s="30">
         <f>(F2+100)-F4</f>
-        <v>#N/A</v>
+        <v>181</v>
       </c>
       <c r="H2" s="18" t="str">
         <f>INDEX(RankList[],MATCH(C2,RankList[Name],0),2)</f>
         <v>m</v>
       </c>
-      <c r="I2" s="33" t="e">
+      <c r="I2" s="27">
         <f>IF(H2=H3,1,0)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J2" s="8">
         <f>COUNTIF($C$2:$C$21,C2)</f>
@@ -1478,51 +1477,51 @@
       </c>
     </row>
     <row r="3" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="31"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="13" t="e">
+      <c r="D3" s="29"/>
+      <c r="E3" s="13">
         <f>INDEX(RankList[],MATCH(C3,RankList[Name],0),6)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="18" t="e">
+        <v>2726</v>
+      </c>
+      <c r="F3" s="32"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="18" t="str">
         <f>INDEX(RankList[],MATCH(C3,RankList[Name],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I3" s="33"/>
+        <v>w</v>
+      </c>
+      <c r="I3" s="27"/>
       <c r="J3" s="24">
         <f t="shared" ref="J3:J21" si="0">COUNTIF($C$2:$C$21,C3)</f>
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="34"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="13">
         <f>INDEX(RankList[],MATCH(C4,RankList[Name],0),6)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="27" t="e">
+      <c r="F4" s="32">
         <f>E4+E5</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G4" s="32"/>
+        <v>2645</v>
+      </c>
+      <c r="G4" s="30"/>
       <c r="H4" s="18" t="str">
         <f>INDEX(RankList[],MATCH(C4,RankList[Name],0),2)</f>
         <v>m</v>
       </c>
-      <c r="I4" s="33" t="e">
+      <c r="I4" s="27">
         <f>IF(H4=H5,1,0)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J4" s="24">
         <f t="shared" si="0"/>
@@ -1530,22 +1529,22 @@
       </c>
     </row>
     <row r="5" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="29"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="13" t="e">
+      <c r="D5" s="29"/>
+      <c r="E5" s="13">
         <f>INDEX(RankList[],MATCH(C5,RankList[Name],0),6)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="18" t="e">
+        <v>2645</v>
+      </c>
+      <c r="F5" s="32"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="18" t="str">
         <f>INDEX(RankList[],MATCH(C5,RankList[Name],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I5" s="33"/>
+        <v>w</v>
+      </c>
+      <c r="I5" s="27"/>
       <c r="J5" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1559,25 +1558,25 @@
         <v>20</v>
       </c>
       <c r="D6" s="17"/>
-      <c r="E6" s="13" t="e">
+      <c r="E6" s="13">
         <f>INDEX(RankList[],MATCH(C6,RankList[Name],0),4)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F6" s="14" t="e">
+        <v>2773</v>
+      </c>
+      <c r="F6" s="14">
         <f>E6</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G6" s="15" t="e">
+        <v>2773</v>
+      </c>
+      <c r="G6" s="15">
         <f>F6-F7</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H6" s="18" t="e">
+        <v>86</v>
+      </c>
+      <c r="H6" s="18" t="str">
         <f>INDEX(RankList[],MATCH(C6,RankList[Name],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I6" s="25" t="e">
+        <v>w</v>
+      </c>
+      <c r="I6" s="25">
         <f>IF(H6&lt;&gt;"W",1,0)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J6" s="24">
         <f t="shared" si="0"/>
@@ -1592,22 +1591,22 @@
         <v>21</v>
       </c>
       <c r="D7" s="17"/>
-      <c r="E7" s="13" t="e">
+      <c r="E7" s="13">
         <f>INDEX(RankList[],MATCH(C7,RankList[Name],0),4)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F7" s="14" t="e">
+        <v>2687</v>
+      </c>
+      <c r="F7" s="14">
         <f t="shared" ref="F7:F11" si="1">E7</f>
-        <v>#N/A</v>
+        <v>2687</v>
       </c>
       <c r="G7" s="15"/>
-      <c r="H7" s="18" t="e">
+      <c r="H7" s="18" t="str">
         <f>INDEX(RankList[],MATCH(C7,RankList[Name],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I7" s="25" t="e">
+        <v>w</v>
+      </c>
+      <c r="I7" s="25">
         <f>IF(H7&lt;&gt;"W",1,0)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J7" s="24">
         <f t="shared" si="0"/>
@@ -1744,32 +1743,32 @@
       </c>
     </row>
     <row r="12" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="13" t="e">
+      <c r="D12" s="28"/>
+      <c r="E12" s="13">
         <f>INDEX(RankList[],MATCH(C12,RankList[Name],0),5)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F12" s="27" t="e">
+        <v>2942</v>
+      </c>
+      <c r="F12" s="32">
         <f t="shared" ref="F12" si="4">E12+E13</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G12" s="32" t="e">
+        <v>5533</v>
+      </c>
+      <c r="G12" s="30">
         <f>F12-F14</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H12" s="18" t="e">
+        <v>273</v>
+      </c>
+      <c r="H12" s="18" t="str">
         <f>INDEX(RankList[],MATCH(C12,RankList[Name],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I12" s="25" t="e">
+        <v>w</v>
+      </c>
+      <c r="I12" s="25">
         <f t="shared" ref="I12:I15" si="5">IF(H12&lt;&gt;"W",1,0)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J12" s="24">
         <f t="shared" si="0"/>
@@ -1777,24 +1776,24 @@
       </c>
     </row>
     <row r="13" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="31"/>
+      <c r="B13" s="37"/>
       <c r="C13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="13" t="e">
+      <c r="D13" s="29"/>
+      <c r="E13" s="13">
         <f>INDEX(RankList[],MATCH(C13,RankList[Name],0),5)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="18" t="e">
+        <v>2591</v>
+      </c>
+      <c r="F13" s="32"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="18" t="str">
         <f>INDEX(RankList[],MATCH(C13,RankList[Name],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I13" s="25" t="e">
+        <v>w</v>
+      </c>
+      <c r="I13" s="25">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J13" s="24">
         <f t="shared" si="0"/>
@@ -1802,29 +1801,29 @@
       </c>
     </row>
     <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="34" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="13" t="e">
+      <c r="D14" s="28"/>
+      <c r="E14" s="13">
         <f>INDEX(RankList[],MATCH(C14,RankList[Name],0),5)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F14" s="27" t="e">
+        <v>2656</v>
+      </c>
+      <c r="F14" s="32">
         <f t="shared" ref="F14" si="6">E14+E15</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G14" s="32"/>
-      <c r="H14" s="18" t="e">
+        <v>5260</v>
+      </c>
+      <c r="G14" s="30"/>
+      <c r="H14" s="18" t="str">
         <f>INDEX(RankList[],MATCH(C14,RankList[Name],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I14" s="25" t="e">
+        <v>w</v>
+      </c>
+      <c r="I14" s="25">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J14" s="24">
         <f t="shared" si="0"/>
@@ -1832,24 +1831,24 @@
       </c>
     </row>
     <row r="15" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="29"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="13" t="e">
+      <c r="D15" s="29"/>
+      <c r="E15" s="13">
         <f>INDEX(RankList[],MATCH(C15,RankList[Name],0),5)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="18" t="e">
+        <v>2604</v>
+      </c>
+      <c r="F15" s="32"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="18" t="str">
         <f>INDEX(RankList[],MATCH(C15,RankList[Name],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I15" s="25" t="e">
+        <v>w</v>
+      </c>
+      <c r="I15" s="25">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J15" s="24">
         <f t="shared" si="0"/>
@@ -1857,22 +1856,22 @@
       </c>
     </row>
     <row r="16" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="36" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="34"/>
+      <c r="D16" s="28"/>
       <c r="E16" s="13">
         <f>INDEX(RankList[],MATCH(C16,RankList[Name],0),5)</f>
         <v>3363</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="32">
         <f t="shared" ref="F16" si="7">E16+E17</f>
         <v>6686</v>
       </c>
-      <c r="G16" s="32">
+      <c r="G16" s="30">
         <f>F16-F18</f>
         <v>-66</v>
       </c>
@@ -1890,17 +1889,17 @@
       </c>
     </row>
     <row r="17" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="31"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="35"/>
+      <c r="D17" s="29"/>
       <c r="E17" s="13">
         <f>INDEX(RankList[],MATCH(C17,RankList[Name],0),5)</f>
         <v>3323</v>
       </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="30"/>
       <c r="H17" s="18" t="str">
         <f>INDEX(RankList[],MATCH(C17,RankList[Name],0),2)</f>
         <v>m</v>
@@ -1915,22 +1914,22 @@
       </c>
     </row>
     <row r="18" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="34" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="34"/>
+      <c r="D18" s="28"/>
       <c r="E18" s="13">
         <f>INDEX(RankList[],MATCH(C18,RankList[Name],0),5)</f>
         <v>3326</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="32">
         <f t="shared" ref="F18" si="9">E18+E19</f>
         <v>6752</v>
       </c>
-      <c r="G18" s="32">
+      <c r="G18" s="30">
         <f>F18-F20</f>
         <v>151</v>
       </c>
@@ -1948,17 +1947,17 @@
       </c>
     </row>
     <row r="19" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="31"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="35"/>
+      <c r="D19" s="29"/>
       <c r="E19" s="13">
         <f>INDEX(RankList[],MATCH(C19,RankList[Name],0),5)</f>
         <v>3426</v>
       </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="30"/>
       <c r="H19" s="18" t="str">
         <f>INDEX(RankList[],MATCH(C19,RankList[Name],0),2)</f>
         <v>m</v>
@@ -1973,22 +1972,22 @@
       </c>
     </row>
     <row r="20" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="34" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="34"/>
+      <c r="D20" s="28"/>
       <c r="E20" s="13">
         <f>INDEX(RankList[],MATCH(C20,RankList[Name],0),5)</f>
         <v>3241</v>
       </c>
-      <c r="F20" s="27">
+      <c r="F20" s="32">
         <f t="shared" ref="F20" si="10">E20+E21</f>
         <v>6601</v>
       </c>
-      <c r="G20" s="32"/>
+      <c r="G20" s="30"/>
       <c r="H20" s="18" t="str">
         <f>INDEX(RankList[],MATCH(C20,RankList[Name],0),2)</f>
         <v>m</v>
@@ -2003,17 +2002,17 @@
       </c>
     </row>
     <row r="21" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="29"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="35"/>
+      <c r="D21" s="29"/>
       <c r="E21" s="16">
         <f>INDEX(RankList[],MATCH(C21,RankList[Name],0),5)</f>
         <v>3360</v>
       </c>
-      <c r="F21" s="37"/>
-      <c r="G21" s="36"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="31"/>
       <c r="H21" s="19" t="str">
         <f>INDEX(RankList[],MATCH(C21,RankList[Name],0),2)</f>
         <v>m</v>
@@ -2029,6 +2028,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F14:F15"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="D16:D17"/>
@@ -2045,20 +2058,6 @@
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
   </mergeCells>
   <conditionalFormatting sqref="F2 F4 F6:F12 F14 F16 F18">
     <cfRule type="expression" dxfId="6" priority="7">
@@ -2105,14 +2104,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8259F9-40D9-48AB-9DC6-084747F0F304}">
   <dimension ref="A1:F137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="2" max="6" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="6" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2135,2724 +2134,2724 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="n">
-        <v>4040.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4135.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3426.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="C2">
+        <v>4040</v>
+      </c>
+      <c r="D2">
+        <v>4135</v>
+      </c>
+      <c r="E2">
+        <v>3426</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>34</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="n">
-        <v>3779.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3804.0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3727.0</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="C3">
+        <v>3779</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>3804</v>
+      </c>
+      <c r="F3">
+        <v>3727</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="n">
-        <v>3762.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3824.0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3632.0</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="C4">
+        <v>3762</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>3824</v>
+      </c>
+      <c r="F4">
+        <v>3632</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="n">
-        <v>3592.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3703.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3326.0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="C5">
+        <v>3592</v>
+      </c>
+      <c r="D5">
+        <v>3703</v>
+      </c>
+      <c r="E5">
+        <v>3326</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>36</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
       </c>
-      <c r="C6" t="n">
-        <v>3565.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="C6">
+        <v>3565</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="n">
-        <v>3489.0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3527.0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3395.0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="C7">
+        <v>3489</v>
+      </c>
+      <c r="D7">
+        <v>3527</v>
+      </c>
+      <c r="E7">
+        <v>3395</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>39</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="n">
-        <v>3468.0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3520.0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>3289.0</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="C8">
+        <v>3468</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>3520</v>
+      </c>
+      <c r="F8">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="n">
-        <v>3454.0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3376.0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>3512.0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3286.0</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="C9">
+        <v>3454</v>
+      </c>
+      <c r="D9">
+        <v>3376</v>
+      </c>
+      <c r="E9">
+        <v>3512</v>
+      </c>
+      <c r="F9">
+        <v>3286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="n">
-        <v>3387.0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>3353.0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>3426.0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="C10">
+        <v>3387</v>
+      </c>
+      <c r="D10">
+        <v>3353</v>
+      </c>
+      <c r="E10">
+        <v>3426</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="n">
-        <v>3343.0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>3304.0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>3363.0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="C11">
+        <v>3343</v>
+      </c>
+      <c r="D11">
+        <v>3304</v>
+      </c>
+      <c r="E11">
+        <v>3363</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="n">
-        <v>3327.0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>3330.0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>3323.0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="C12">
+        <v>3327</v>
+      </c>
+      <c r="D12">
+        <v>3330</v>
+      </c>
+      <c r="E12">
+        <v>3323</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="n">
-        <v>3319.0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>3245.0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>3360.0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="C13">
+        <v>3319</v>
+      </c>
+      <c r="D13">
+        <v>3245</v>
+      </c>
+      <c r="E13">
+        <v>3360</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" t="n">
-        <v>3303.0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>3347.0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>3241.0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>3204.0</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="C14">
+        <v>3303</v>
+      </c>
+      <c r="D14">
+        <v>3347</v>
+      </c>
+      <c r="E14">
+        <v>3241</v>
+      </c>
+      <c r="F14">
+        <v>3204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="n">
-        <v>3297.0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>3330.0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>3308.0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>3221.0</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="C15">
+        <v>3297</v>
+      </c>
+      <c r="D15">
+        <v>3330</v>
+      </c>
+      <c r="E15">
+        <v>3308</v>
+      </c>
+      <c r="F15">
+        <v>3221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>42</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="n">
-        <v>3253.0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>3320.0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>3130.0</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="C16">
+        <v>3253</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>3320</v>
+      </c>
+      <c r="F16">
+        <v>3130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>43</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="n">
-        <v>3245.0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>3240.0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>3249.0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="C17">
+        <v>3245</v>
+      </c>
+      <c r="D17">
+        <v>3240</v>
+      </c>
+      <c r="E17">
+        <v>3249</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="n">
-        <v>3228.0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>3223.0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>3232.0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="C18">
+        <v>3228</v>
+      </c>
+      <c r="D18">
+        <v>3223</v>
+      </c>
+      <c r="E18">
+        <v>3232</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>45</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="n">
-        <v>3206.0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>3243.0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>3126.0</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="C19">
+        <v>3206</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>3243</v>
+      </c>
+      <c r="F19">
+        <v>3126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>46</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
       </c>
-      <c r="C20" t="n">
-        <v>3199.0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>3199.0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="C20">
+        <v>3199</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>3199</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>47</v>
       </c>
       <c r="B21" t="s">
         <v>23</v>
       </c>
-      <c r="C21" t="n">
-        <v>3186.0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>3146.0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>3264.0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>2952.0</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="C21">
+        <v>3186</v>
+      </c>
+      <c r="D21">
+        <v>3146</v>
+      </c>
+      <c r="E21">
+        <v>3264</v>
+      </c>
+      <c r="F21">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>48</v>
       </c>
       <c r="B22" t="s">
         <v>49</v>
       </c>
-      <c r="C22" t="n">
-        <v>3183.0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>3342.0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>2890.0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="23">
+      <c r="C22">
+        <v>3183</v>
+      </c>
+      <c r="D22">
+        <v>3342</v>
+      </c>
+      <c r="E22">
+        <v>2890</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>50</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
-      <c r="C23" t="n">
-        <v>3179.0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>3194.0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>3131.0</v>
-      </c>
-    </row>
-    <row r="24">
+      <c r="C23">
+        <v>3179</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>3194</v>
+      </c>
+      <c r="F23">
+        <v>3131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>51</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
-      <c r="C24" t="n">
-        <v>3155.0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>3293.0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>2850.0</v>
-      </c>
-    </row>
-    <row r="25">
+      <c r="C24">
+        <v>3155</v>
+      </c>
+      <c r="D24">
+        <v>3293</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>52</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
-      <c r="C25" t="n">
-        <v>3126.0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>3169.0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>3047.0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="26">
+      <c r="C25">
+        <v>3126</v>
+      </c>
+      <c r="D25">
+        <v>3169</v>
+      </c>
+      <c r="E25">
+        <v>3047</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>53</v>
       </c>
       <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="C26" t="n">
-        <v>3120.0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>2860.0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>3236.0</v>
-      </c>
-    </row>
-    <row r="27">
+      <c r="C26">
+        <v>3120</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>2860</v>
+      </c>
+      <c r="F26">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>54</v>
       </c>
       <c r="B27" t="s">
         <v>23</v>
       </c>
-      <c r="C27" t="n">
-        <v>3101.0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>3118.0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>3048.0</v>
-      </c>
-    </row>
-    <row r="28">
+      <c r="C27">
+        <v>3101</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>3118</v>
+      </c>
+      <c r="F27">
+        <v>3048</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>55</v>
       </c>
       <c r="B28" t="s">
         <v>37</v>
       </c>
-      <c r="C28" t="n">
-        <v>3090.0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
+      <c r="C28">
+        <v>3090</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>56</v>
       </c>
       <c r="B29" t="s">
         <v>37</v>
       </c>
-      <c r="C29" t="n">
-        <v>3070.0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
+      <c r="C29">
+        <v>3070</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>57</v>
       </c>
       <c r="B30" t="s">
         <v>37</v>
       </c>
-      <c r="C30" t="n">
-        <v>3069.0</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="31">
+      <c r="C30">
+        <v>3069</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>58</v>
       </c>
       <c r="B31" t="s">
         <v>37</v>
       </c>
-      <c r="C31" t="n">
-        <v>3063.0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="32">
+      <c r="C31">
+        <v>3063</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>59</v>
       </c>
       <c r="B32" t="s">
         <v>23</v>
       </c>
-      <c r="C32" t="n">
-        <v>3038.0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>2973.0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>3073.0</v>
-      </c>
-    </row>
-    <row r="33">
+      <c r="C32">
+        <v>3038</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>2973</v>
+      </c>
+      <c r="F32">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>60</v>
       </c>
       <c r="B33" t="s">
         <v>23</v>
       </c>
-      <c r="C33" t="n">
-        <v>3029.0</v>
-      </c>
-      <c r="D33" t="n">
-        <v>2988.0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>3052.0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>2981.0</v>
-      </c>
-    </row>
-    <row r="34">
+      <c r="C33">
+        <v>3029</v>
+      </c>
+      <c r="D33">
+        <v>2988</v>
+      </c>
+      <c r="E33">
+        <v>3052</v>
+      </c>
+      <c r="F33">
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>61</v>
       </c>
       <c r="B34" t="s">
         <v>23</v>
       </c>
-      <c r="C34" t="n">
-        <v>3020.0</v>
-      </c>
-      <c r="D34" t="n">
-        <v>3000.0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>3050.0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>3100.0</v>
-      </c>
-    </row>
-    <row r="35">
+      <c r="C34">
+        <v>3020</v>
+      </c>
+      <c r="D34">
+        <v>3000</v>
+      </c>
+      <c r="E34">
+        <v>3050</v>
+      </c>
+      <c r="F34">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>62</v>
       </c>
       <c r="B35" t="s">
         <v>23</v>
       </c>
-      <c r="C35" t="n">
-        <v>2982.0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>2945.0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>3028.0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="36">
+      <c r="C35">
+        <v>2982</v>
+      </c>
+      <c r="D35">
+        <v>2945</v>
+      </c>
+      <c r="E35">
+        <v>3028</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>63</v>
       </c>
       <c r="B36" t="s">
         <v>23</v>
       </c>
-      <c r="C36" t="n">
-        <v>2972.0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>2965.0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>2982.0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="37">
+      <c r="C36">
+        <v>2972</v>
+      </c>
+      <c r="D36">
+        <v>2965</v>
+      </c>
+      <c r="E36">
+        <v>2982</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>19</v>
       </c>
       <c r="B37" t="s">
         <v>49</v>
       </c>
-      <c r="C37" t="n">
-        <v>2908.0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>2960.0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>2942.0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>2726.0</v>
-      </c>
-    </row>
-    <row r="38">
+      <c r="C37">
+        <v>2908</v>
+      </c>
+      <c r="D37">
+        <v>2960</v>
+      </c>
+      <c r="E37">
+        <v>2942</v>
+      </c>
+      <c r="F37">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>64</v>
       </c>
       <c r="B38" t="s">
         <v>37</v>
       </c>
-      <c r="C38" t="n">
-        <v>2894.0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="39">
+      <c r="C38">
+        <v>2894</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>65</v>
       </c>
       <c r="B39" t="s">
         <v>49</v>
       </c>
-      <c r="C39" t="n">
-        <v>2787.0</v>
-      </c>
-      <c r="D39" t="n">
-        <v>2759.0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>2770.0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>2849.0</v>
-      </c>
-    </row>
-    <row r="40">
+      <c r="C39">
+        <v>2787</v>
+      </c>
+      <c r="D39">
+        <v>2759</v>
+      </c>
+      <c r="E39">
+        <v>2770</v>
+      </c>
+      <c r="F39">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>66</v>
       </c>
       <c r="B40" t="s">
         <v>23</v>
       </c>
-      <c r="C40" t="n">
-        <v>2782.0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>2873.0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>2647.0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>2411.0</v>
-      </c>
-    </row>
-    <row r="41">
+      <c r="C40">
+        <v>2782</v>
+      </c>
+      <c r="D40">
+        <v>2873</v>
+      </c>
+      <c r="E40">
+        <v>2647</v>
+      </c>
+      <c r="F40">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>67</v>
       </c>
       <c r="B41" t="s">
         <v>49</v>
       </c>
-      <c r="C41" t="n">
-        <v>2762.0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>2773.0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>2743.0</v>
-      </c>
-    </row>
-    <row r="42">
+      <c r="C41">
+        <v>2762</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>2773</v>
+      </c>
+      <c r="F41">
+        <v>2743</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>68</v>
       </c>
       <c r="B42" t="s">
         <v>23</v>
       </c>
-      <c r="C42" t="n">
-        <v>2756.0</v>
-      </c>
-      <c r="D42" t="n">
-        <v>2857.0</v>
-      </c>
-      <c r="E42" t="n">
-        <v>2576.0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>2536.0</v>
-      </c>
-    </row>
-    <row r="43">
+      <c r="C42">
+        <v>2756</v>
+      </c>
+      <c r="D42">
+        <v>2857</v>
+      </c>
+      <c r="E42">
+        <v>2576</v>
+      </c>
+      <c r="F42">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>69</v>
       </c>
       <c r="B43" t="s">
         <v>49</v>
       </c>
-      <c r="C43" t="n">
-        <v>2754.0</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>2800.0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>2659.0</v>
-      </c>
-    </row>
-    <row r="44">
+      <c r="C43">
+        <v>2754</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>2800</v>
+      </c>
+      <c r="F43">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>70</v>
       </c>
       <c r="B44" t="s">
         <v>49</v>
       </c>
-      <c r="C44" t="n">
-        <v>2729.0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>2740.0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>2709.0</v>
-      </c>
-    </row>
-    <row r="45">
+      <c r="C44">
+        <v>2729</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>2740</v>
+      </c>
+      <c r="F44">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>20</v>
       </c>
       <c r="B45" t="s">
         <v>49</v>
       </c>
-      <c r="C45" t="n">
-        <v>2691.0</v>
-      </c>
-      <c r="D45" t="n">
-        <v>2773.0</v>
-      </c>
-      <c r="E45" t="n">
-        <v>2591.0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>2468.0</v>
-      </c>
-    </row>
-    <row r="46">
+      <c r="C45">
+        <v>2691</v>
+      </c>
+      <c r="D45">
+        <v>2773</v>
+      </c>
+      <c r="E45">
+        <v>2591</v>
+      </c>
+      <c r="F45">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>71</v>
       </c>
       <c r="B46" t="s">
         <v>49</v>
       </c>
-      <c r="C46" t="n">
-        <v>2675.0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>2665.0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>2690.0</v>
-      </c>
-    </row>
-    <row r="47">
+      <c r="C46">
+        <v>2675</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>2665</v>
+      </c>
+      <c r="F46">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>72</v>
       </c>
       <c r="B47" t="s">
         <v>23</v>
       </c>
-      <c r="C47" t="n">
-        <v>2667.0</v>
-      </c>
-      <c r="D47" t="n">
-        <v>2681.0</v>
-      </c>
-      <c r="E47" t="n">
-        <v>2700.0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>2465.0</v>
-      </c>
-    </row>
-    <row r="48">
+      <c r="C47">
+        <v>2667</v>
+      </c>
+      <c r="D47">
+        <v>2681</v>
+      </c>
+      <c r="E47">
+        <v>2700</v>
+      </c>
+      <c r="F47">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>21</v>
       </c>
       <c r="B48" t="s">
         <v>49</v>
       </c>
-      <c r="C48" t="n">
-        <v>2659.0</v>
-      </c>
-      <c r="D48" t="n">
-        <v>2687.0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>2604.0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="49">
+      <c r="C48">
+        <v>2659</v>
+      </c>
+      <c r="D48">
+        <v>2687</v>
+      </c>
+      <c r="E48">
+        <v>2604</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>22</v>
       </c>
       <c r="B49" t="s">
         <v>49</v>
       </c>
-      <c r="C49" t="n">
-        <v>2635.0</v>
-      </c>
-      <c r="D49" t="n">
-        <v>2563.0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>2656.0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>2645.0</v>
-      </c>
-    </row>
-    <row r="50">
+      <c r="C49">
+        <v>2635</v>
+      </c>
+      <c r="D49">
+        <v>2563</v>
+      </c>
+      <c r="E49">
+        <v>2656</v>
+      </c>
+      <c r="F49">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>73</v>
       </c>
       <c r="B50" t="s">
         <v>23</v>
       </c>
-      <c r="C50" t="n">
-        <v>2617.0</v>
-      </c>
-      <c r="D50" t="n">
-        <v>2611.0</v>
-      </c>
-      <c r="E50" t="n">
-        <v>2625.0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="51">
+      <c r="C50">
+        <v>2617</v>
+      </c>
+      <c r="D50">
+        <v>2611</v>
+      </c>
+      <c r="E50">
+        <v>2625</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>74</v>
       </c>
       <c r="B51" t="s">
         <v>37</v>
       </c>
-      <c r="C51" t="n">
-        <v>2605.0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="52">
+      <c r="C51">
+        <v>2605</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>75</v>
       </c>
       <c r="B52" t="s">
         <v>23</v>
       </c>
-      <c r="C52" t="n">
-        <v>2591.0</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2674.0</v>
-      </c>
-      <c r="E52" t="n">
-        <v>2593.0</v>
-      </c>
-      <c r="F52" t="n">
-        <v>2507.0</v>
-      </c>
-    </row>
-    <row r="53">
+      <c r="C52">
+        <v>2591</v>
+      </c>
+      <c r="D52">
+        <v>2674</v>
+      </c>
+      <c r="E52">
+        <v>2593</v>
+      </c>
+      <c r="F52">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>76</v>
       </c>
       <c r="B53" t="s">
         <v>49</v>
       </c>
-      <c r="C53" t="n">
-        <v>2564.0</v>
-      </c>
-      <c r="D53" t="n">
-        <v>2458.0</v>
-      </c>
-      <c r="E53" t="n">
-        <v>2682.0</v>
-      </c>
-      <c r="F53" t="n">
-        <v>2447.0</v>
-      </c>
-    </row>
-    <row r="54">
+      <c r="C53">
+        <v>2564</v>
+      </c>
+      <c r="D53">
+        <v>2458</v>
+      </c>
+      <c r="E53">
+        <v>2682</v>
+      </c>
+      <c r="F53">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>77</v>
       </c>
       <c r="B54" t="s">
         <v>23</v>
       </c>
-      <c r="C54" t="n">
-        <v>2553.0</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E54" t="n">
-        <v>2622.0</v>
-      </c>
-      <c r="F54" t="n">
-        <v>2309.0</v>
-      </c>
-    </row>
-    <row r="55">
+      <c r="C54">
+        <v>2553</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>2622</v>
+      </c>
+      <c r="F54">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>78</v>
       </c>
       <c r="B55" t="s">
         <v>49</v>
       </c>
-      <c r="C55" t="n">
-        <v>2545.0</v>
-      </c>
-      <c r="D55" t="n">
-        <v>2601.0</v>
-      </c>
-      <c r="E55" t="n">
-        <v>2464.0</v>
-      </c>
-      <c r="F55" t="n">
-        <v>2160.0</v>
-      </c>
-    </row>
-    <row r="56">
+      <c r="C55">
+        <v>2545</v>
+      </c>
+      <c r="D55">
+        <v>2601</v>
+      </c>
+      <c r="E55">
+        <v>2464</v>
+      </c>
+      <c r="F55">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>79</v>
       </c>
       <c r="B56" t="s">
         <v>49</v>
       </c>
-      <c r="C56" t="n">
-        <v>2543.0</v>
-      </c>
-      <c r="D56" t="n">
-        <v>2565.0</v>
-      </c>
-      <c r="E56" t="n">
-        <v>2495.0</v>
-      </c>
-      <c r="F56" t="n">
-        <v>2550.0</v>
-      </c>
-    </row>
-    <row r="57">
+      <c r="C56">
+        <v>2543</v>
+      </c>
+      <c r="D56">
+        <v>2565</v>
+      </c>
+      <c r="E56">
+        <v>2495</v>
+      </c>
+      <c r="F56">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>80</v>
       </c>
       <c r="B57" t="s">
         <v>49</v>
       </c>
-      <c r="C57" t="n">
-        <v>2542.0</v>
-      </c>
-      <c r="D57" t="n">
-        <v>2537.0</v>
-      </c>
-      <c r="E57" t="n">
-        <v>2546.0</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="58">
+      <c r="C57">
+        <v>2542</v>
+      </c>
+      <c r="D57">
+        <v>2537</v>
+      </c>
+      <c r="E57">
+        <v>2546</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>81</v>
       </c>
       <c r="B58" t="s">
         <v>23</v>
       </c>
-      <c r="C58" t="n">
-        <v>2539.0</v>
-      </c>
-      <c r="D58" t="n">
-        <v>2521.0</v>
-      </c>
-      <c r="E58" t="n">
-        <v>2553.0</v>
-      </c>
-      <c r="F58" t="n">
-        <v>2407.0</v>
-      </c>
-    </row>
-    <row r="59">
+      <c r="C58">
+        <v>2539</v>
+      </c>
+      <c r="D58">
+        <v>2521</v>
+      </c>
+      <c r="E58">
+        <v>2553</v>
+      </c>
+      <c r="F58">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>82</v>
       </c>
       <c r="B59" t="s">
         <v>23</v>
       </c>
-      <c r="C59" t="n">
-        <v>2536.0</v>
-      </c>
-      <c r="D59" t="n">
-        <v>2536.0</v>
-      </c>
-      <c r="E59" t="n">
-        <v>2537.0</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="60">
+      <c r="C59">
+        <v>2536</v>
+      </c>
+      <c r="D59">
+        <v>2536</v>
+      </c>
+      <c r="E59">
+        <v>2537</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>83</v>
       </c>
       <c r="B60" t="s">
         <v>23</v>
       </c>
-      <c r="C60" t="n">
-        <v>2510.0</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E60" t="n">
-        <v>2513.0</v>
-      </c>
-      <c r="F60" t="n">
-        <v>2505.0</v>
-      </c>
-    </row>
-    <row r="61">
+      <c r="C60">
+        <v>2510</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>2513</v>
+      </c>
+      <c r="F60">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>84</v>
       </c>
       <c r="B61" t="s">
         <v>23</v>
       </c>
-      <c r="C61" t="n">
-        <v>2506.0</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E61" t="n">
-        <v>2506.0</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="62">
+      <c r="C61">
+        <v>2506</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>2506</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>85</v>
       </c>
       <c r="B62" t="s">
         <v>23</v>
       </c>
-      <c r="C62" t="n">
-        <v>2502.0</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E62" t="n">
-        <v>2515.0</v>
-      </c>
-      <c r="F62" t="n">
-        <v>2461.0</v>
-      </c>
-    </row>
-    <row r="63">
+      <c r="C62">
+        <v>2502</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>2515</v>
+      </c>
+      <c r="F62">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>86</v>
       </c>
       <c r="B63" t="s">
         <v>23</v>
       </c>
-      <c r="C63" t="n">
-        <v>2463.0</v>
-      </c>
-      <c r="D63" t="n">
-        <v>2497.0</v>
-      </c>
-      <c r="E63" t="n">
-        <v>2452.0</v>
-      </c>
-      <c r="F63" t="n">
-        <v>2455.0</v>
-      </c>
-    </row>
-    <row r="64">
+      <c r="C63">
+        <v>2463</v>
+      </c>
+      <c r="D63">
+        <v>2497</v>
+      </c>
+      <c r="E63">
+        <v>2452</v>
+      </c>
+      <c r="F63">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>87</v>
       </c>
       <c r="B64" t="s">
         <v>49</v>
       </c>
-      <c r="C64" t="n">
-        <v>2436.0</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2350.0</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2534.0</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2400.0</v>
-      </c>
-    </row>
-    <row r="65">
+      <c r="C64">
+        <v>2436</v>
+      </c>
+      <c r="D64">
+        <v>2350</v>
+      </c>
+      <c r="E64">
+        <v>2534</v>
+      </c>
+      <c r="F64">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>88</v>
       </c>
       <c r="B65" t="s">
         <v>49</v>
       </c>
-      <c r="C65" t="n">
-        <v>2423.0</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E65" t="n">
-        <v>2350.0</v>
-      </c>
-      <c r="F65" t="n">
-        <v>2450.0</v>
-      </c>
-    </row>
-    <row r="66">
+      <c r="C65">
+        <v>2423</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>2350</v>
+      </c>
+      <c r="F65">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>89</v>
       </c>
       <c r="B66" t="s">
         <v>37</v>
       </c>
-      <c r="C66" t="n">
-        <v>2421.0</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="67">
+      <c r="C66">
+        <v>2421</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>90</v>
       </c>
       <c r="B67" t="s">
         <v>49</v>
       </c>
-      <c r="C67" t="n">
-        <v>2421.0</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E67" t="n">
-        <v>2350.0</v>
-      </c>
-      <c r="F67" t="n">
-        <v>2450.0</v>
-      </c>
-    </row>
-    <row r="68">
+      <c r="C67">
+        <v>2421</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>2350</v>
+      </c>
+      <c r="F67">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>91</v>
       </c>
       <c r="B68" t="s">
         <v>49</v>
       </c>
-      <c r="C68" t="n">
-        <v>2417.0</v>
-      </c>
-      <c r="D68" t="n">
-        <v>2387.0</v>
-      </c>
-      <c r="E68" t="n">
-        <v>2495.0</v>
-      </c>
-      <c r="F68" t="n">
-        <v>2370.0</v>
-      </c>
-    </row>
-    <row r="69">
+      <c r="C68">
+        <v>2417</v>
+      </c>
+      <c r="D68">
+        <v>2387</v>
+      </c>
+      <c r="E68">
+        <v>2495</v>
+      </c>
+      <c r="F68">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>92</v>
       </c>
       <c r="B69" t="s">
         <v>23</v>
       </c>
-      <c r="C69" t="n">
-        <v>2413.0</v>
-      </c>
-      <c r="D69" t="n">
-        <v>2452.0</v>
-      </c>
-      <c r="E69" t="n">
-        <v>2392.0</v>
-      </c>
-      <c r="F69" t="n">
-        <v>2443.0</v>
-      </c>
-    </row>
-    <row r="70">
+      <c r="C69">
+        <v>2413</v>
+      </c>
+      <c r="D69">
+        <v>2452</v>
+      </c>
+      <c r="E69">
+        <v>2392</v>
+      </c>
+      <c r="F69">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>93</v>
       </c>
       <c r="B70" t="s">
         <v>23</v>
       </c>
-      <c r="C70" t="n">
-        <v>2397.0</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E70" t="n">
-        <v>2398.0</v>
-      </c>
-      <c r="F70" t="n">
-        <v>2396.0</v>
-      </c>
-    </row>
-    <row r="71">
+      <c r="C70">
+        <v>2397</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>2398</v>
+      </c>
+      <c r="F70">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>94</v>
       </c>
       <c r="B71" t="s">
         <v>49</v>
       </c>
-      <c r="C71" t="n">
-        <v>2390.0</v>
-      </c>
-      <c r="D71" t="n">
-        <v>2350.0</v>
-      </c>
-      <c r="E71" t="n">
-        <v>2466.0</v>
-      </c>
-      <c r="F71" t="n">
-        <v>2334.0</v>
-      </c>
-    </row>
-    <row r="72">
+      <c r="C71">
+        <v>2390</v>
+      </c>
+      <c r="D71">
+        <v>2350</v>
+      </c>
+      <c r="E71">
+        <v>2466</v>
+      </c>
+      <c r="F71">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>95</v>
       </c>
       <c r="B72" t="s">
         <v>49</v>
       </c>
-      <c r="C72" t="n">
-        <v>2390.0</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E72" t="n">
-        <v>2350.0</v>
-      </c>
-      <c r="F72" t="n">
-        <v>2400.0</v>
-      </c>
-    </row>
-    <row r="73">
+      <c r="C72">
+        <v>2390</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>2350</v>
+      </c>
+      <c r="F72">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>96</v>
       </c>
       <c r="B73" t="s">
         <v>23</v>
       </c>
-      <c r="C73" t="n">
-        <v>2385.0</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E73" t="n">
-        <v>2420.0</v>
-      </c>
-      <c r="F73" t="n">
-        <v>2211.0</v>
-      </c>
-    </row>
-    <row r="74">
+      <c r="C73">
+        <v>2385</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>2420</v>
+      </c>
+      <c r="F73">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>97</v>
       </c>
       <c r="B74" t="s">
         <v>23</v>
       </c>
-      <c r="C74" t="n">
-        <v>2380.0</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E74" t="n">
-        <v>2406.0</v>
-      </c>
-      <c r="F74" t="n">
-        <v>2307.0</v>
-      </c>
-    </row>
-    <row r="75">
+      <c r="C74">
+        <v>2380</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>2406</v>
+      </c>
+      <c r="F74">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>98</v>
       </c>
       <c r="B75" t="s">
         <v>23</v>
       </c>
-      <c r="C75" t="n">
-        <v>2360.0</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E75" t="n">
-        <v>2349.0</v>
-      </c>
-      <c r="F75" t="n">
-        <v>2389.0</v>
-      </c>
-    </row>
-    <row r="76">
+      <c r="C75">
+        <v>2360</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>2349</v>
+      </c>
+      <c r="F75">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>99</v>
       </c>
       <c r="B76" t="s">
         <v>23</v>
       </c>
-      <c r="C76" t="n">
-        <v>2334.0</v>
-      </c>
-      <c r="D76" t="n">
-        <v>2324.0</v>
-      </c>
-      <c r="E76" t="n">
-        <v>2305.0</v>
-      </c>
-      <c r="F76" t="n">
-        <v>2411.0</v>
-      </c>
-    </row>
-    <row r="77">
+      <c r="C76">
+        <v>2334</v>
+      </c>
+      <c r="D76">
+        <v>2324</v>
+      </c>
+      <c r="E76">
+        <v>2305</v>
+      </c>
+      <c r="F76">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>100</v>
       </c>
       <c r="B77" t="s">
         <v>23</v>
       </c>
-      <c r="C77" t="n">
-        <v>2326.0</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E77" t="n">
-        <v>2308.0</v>
-      </c>
-      <c r="F77" t="n">
-        <v>2368.0</v>
-      </c>
-    </row>
-    <row r="78">
+      <c r="C77">
+        <v>2326</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>2308</v>
+      </c>
+      <c r="F77">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>101</v>
       </c>
       <c r="B78" t="s">
         <v>23</v>
       </c>
-      <c r="C78" t="n">
-        <v>2309.0</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E78" t="n">
-        <v>2308.0</v>
-      </c>
-      <c r="F78" t="n">
-        <v>2311.0</v>
-      </c>
-    </row>
-    <row r="79">
+      <c r="C78">
+        <v>2309</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>2308</v>
+      </c>
+      <c r="F78">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>102</v>
       </c>
       <c r="B79" t="s">
         <v>23</v>
       </c>
-      <c r="C79" t="n">
-        <v>2300.0</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E79" t="n">
-        <v>2300.0</v>
-      </c>
-      <c r="F79" t="n">
-        <v>2300.0</v>
-      </c>
-    </row>
-    <row r="80">
+      <c r="C79">
+        <v>2300</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>2300</v>
+      </c>
+      <c r="F79">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>103</v>
       </c>
       <c r="B80" t="s">
         <v>23</v>
       </c>
-      <c r="C80" t="n">
-        <v>2287.0</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E80" t="n">
-        <v>2261.0</v>
-      </c>
-      <c r="F80" t="n">
-        <v>2340.0</v>
-      </c>
-    </row>
-    <row r="81">
+      <c r="C80">
+        <v>2287</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>2261</v>
+      </c>
+      <c r="F80">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>104</v>
       </c>
       <c r="B81" t="s">
         <v>23</v>
       </c>
-      <c r="C81" t="n">
-        <v>2287.0</v>
-      </c>
-      <c r="D81" t="n">
-        <v>2337.0</v>
-      </c>
-      <c r="E81" t="n">
-        <v>2266.0</v>
-      </c>
-      <c r="F81" t="n">
-        <v>2312.0</v>
-      </c>
-    </row>
-    <row r="82">
+      <c r="C81">
+        <v>2287</v>
+      </c>
+      <c r="D81">
+        <v>2337</v>
+      </c>
+      <c r="E81">
+        <v>2266</v>
+      </c>
+      <c r="F81">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>105</v>
       </c>
       <c r="B82" t="s">
         <v>23</v>
       </c>
-      <c r="C82" t="n">
-        <v>2277.0</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E82" t="n">
-        <v>2275.0</v>
-      </c>
-      <c r="F82" t="n">
-        <v>2285.0</v>
-      </c>
-    </row>
-    <row r="83">
+      <c r="C82">
+        <v>2277</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>2275</v>
+      </c>
+      <c r="F82">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>106</v>
       </c>
       <c r="B83" t="s">
         <v>49</v>
       </c>
-      <c r="C83" t="n">
-        <v>2205.0</v>
-      </c>
-      <c r="D83" t="n">
-        <v>2117.0</v>
-      </c>
-      <c r="E83" t="n">
-        <v>2350.0</v>
-      </c>
-      <c r="F83" t="n">
-        <v>2195.0</v>
-      </c>
-    </row>
-    <row r="84">
+      <c r="C83">
+        <v>2205</v>
+      </c>
+      <c r="D83">
+        <v>2117</v>
+      </c>
+      <c r="E83">
+        <v>2350</v>
+      </c>
+      <c r="F83">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>107</v>
       </c>
       <c r="B84" t="s">
         <v>49</v>
       </c>
-      <c r="C84" t="n">
-        <v>2163.0</v>
-      </c>
-      <c r="D84" t="n">
-        <v>2184.0</v>
-      </c>
-      <c r="E84" t="n">
-        <v>2257.0</v>
-      </c>
-      <c r="F84" t="n">
-        <v>1857.0</v>
-      </c>
-    </row>
-    <row r="85">
+      <c r="C84">
+        <v>2163</v>
+      </c>
+      <c r="D84">
+        <v>2184</v>
+      </c>
+      <c r="E84">
+        <v>2257</v>
+      </c>
+      <c r="F84">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>108</v>
       </c>
       <c r="B85" t="s">
         <v>23</v>
       </c>
-      <c r="C85" t="n">
-        <v>2095.0</v>
-      </c>
-      <c r="D85" t="n">
-        <v>2161.0</v>
-      </c>
-      <c r="E85" t="n">
-        <v>1925.0</v>
-      </c>
-      <c r="F85" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="86">
+      <c r="C85">
+        <v>2095</v>
+      </c>
+      <c r="D85">
+        <v>2161</v>
+      </c>
+      <c r="E85">
+        <v>1925</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>109</v>
       </c>
       <c r="B86" t="s">
         <v>49</v>
       </c>
-      <c r="C86" t="n">
-        <v>2042.0</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E86" t="n">
-        <v>1969.0</v>
-      </c>
-      <c r="F86" t="n">
-        <v>2065.0</v>
-      </c>
-    </row>
-    <row r="87">
+      <c r="C86">
+        <v>2042</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>1969</v>
+      </c>
+      <c r="F86">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>110</v>
       </c>
       <c r="B87" t="s">
         <v>49</v>
       </c>
-      <c r="C87" t="n">
-        <v>2039.0</v>
-      </c>
-      <c r="D87" t="n">
-        <v>2064.0</v>
-      </c>
-      <c r="E87" t="n">
-        <v>2043.0</v>
-      </c>
-      <c r="F87" t="n">
-        <v>1952.0</v>
-      </c>
-    </row>
-    <row r="88">
+      <c r="C87">
+        <v>2039</v>
+      </c>
+      <c r="D87">
+        <v>2064</v>
+      </c>
+      <c r="E87">
+        <v>2043</v>
+      </c>
+      <c r="F87">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>111</v>
       </c>
       <c r="B88" t="s">
         <v>23</v>
       </c>
-      <c r="C88" t="n">
-        <v>2000.0</v>
-      </c>
-      <c r="D88" t="n">
-        <v>2000.0</v>
-      </c>
-      <c r="E88" t="n">
-        <v>2000.0</v>
-      </c>
-      <c r="F88" t="n">
-        <v>2000.0</v>
-      </c>
-    </row>
-    <row r="89">
+      <c r="C88">
+        <v>2000</v>
+      </c>
+      <c r="D88">
+        <v>2000</v>
+      </c>
+      <c r="E88">
+        <v>2000</v>
+      </c>
+      <c r="F88">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>112</v>
       </c>
       <c r="B89" t="s">
         <v>49</v>
       </c>
-      <c r="C89" t="n">
-        <v>1958.0</v>
-      </c>
-      <c r="D89" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E89" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F89" t="n">
-        <v>1958.0</v>
-      </c>
-    </row>
-    <row r="90">
+      <c r="C89">
+        <v>1958</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>113</v>
       </c>
       <c r="B90" t="s">
         <v>49</v>
       </c>
-      <c r="C90" t="n">
-        <v>1926.0</v>
-      </c>
-      <c r="D90" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E90" t="n">
-        <v>1945.0</v>
-      </c>
-      <c r="F90" t="n">
-        <v>1917.0</v>
-      </c>
-    </row>
-    <row r="91">
+      <c r="C90">
+        <v>1926</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>1945</v>
+      </c>
+      <c r="F90">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>114</v>
       </c>
       <c r="B91" t="s">
         <v>23</v>
       </c>
-      <c r="C91" t="n">
-        <v>1880.0</v>
-      </c>
-      <c r="D91" t="n">
-        <v>1864.0</v>
-      </c>
-      <c r="E91" t="n">
-        <v>1886.0</v>
-      </c>
-      <c r="F91" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="92">
+      <c r="C91">
+        <v>1880</v>
+      </c>
+      <c r="D91">
+        <v>1864</v>
+      </c>
+      <c r="E91">
+        <v>1886</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>115</v>
       </c>
       <c r="B92" t="s">
         <v>49</v>
       </c>
-      <c r="C92" t="n">
-        <v>1877.0</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E92" t="n">
-        <v>1927.0</v>
-      </c>
-      <c r="F92" t="n">
-        <v>1852.0</v>
-      </c>
-    </row>
-    <row r="93">
+      <c r="C92">
+        <v>1877</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>1927</v>
+      </c>
+      <c r="F92">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>116</v>
       </c>
       <c r="B93" t="s">
         <v>23</v>
       </c>
-      <c r="C93" t="n">
-        <v>1815.0</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E93" t="n">
-        <v>1815.0</v>
-      </c>
-      <c r="F93" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="94">
+      <c r="C93">
+        <v>1815</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>1815</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>117</v>
       </c>
       <c r="B94" t="s">
         <v>49</v>
       </c>
-      <c r="C94" t="n">
-        <v>1809.0</v>
-      </c>
-      <c r="D94" t="n">
-        <v>1853.0</v>
-      </c>
-      <c r="E94" t="n">
-        <v>1771.0</v>
-      </c>
-      <c r="F94" t="n">
-        <v>1521.0</v>
-      </c>
-    </row>
-    <row r="95">
+      <c r="C94">
+        <v>1809</v>
+      </c>
+      <c r="D94">
+        <v>1853</v>
+      </c>
+      <c r="E94">
+        <v>1771</v>
+      </c>
+      <c r="F94">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>118</v>
       </c>
       <c r="B95" t="s">
         <v>37</v>
       </c>
-      <c r="C95" t="n">
-        <v>1804.0</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E95" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F95" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="96">
+      <c r="C95">
+        <v>1804</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>119</v>
       </c>
       <c r="B96" t="s">
         <v>49</v>
       </c>
-      <c r="C96" t="n">
-        <v>1800.0</v>
-      </c>
-      <c r="D96" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E96" t="n">
-        <v>1800.0</v>
-      </c>
-      <c r="F96" t="n">
-        <v>1800.0</v>
-      </c>
-    </row>
-    <row r="97">
+      <c r="C96">
+        <v>1800</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>1800</v>
+      </c>
+      <c r="F96">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>120</v>
       </c>
       <c r="B97" t="s">
         <v>23</v>
       </c>
-      <c r="C97" t="n">
-        <v>1791.0</v>
-      </c>
-      <c r="D97" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E97" t="n">
-        <v>1791.0</v>
-      </c>
-      <c r="F97" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="98">
+      <c r="C97">
+        <v>1791</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>1791</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>121</v>
       </c>
       <c r="B98" t="s">
         <v>23</v>
       </c>
-      <c r="C98" t="n">
-        <v>1791.0</v>
-      </c>
-      <c r="D98" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E98" t="n">
-        <v>1788.0</v>
-      </c>
-      <c r="F98" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="99">
+      <c r="C98">
+        <v>1791</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>1788</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>122</v>
       </c>
       <c r="B99" t="s">
         <v>23</v>
       </c>
-      <c r="C99" t="n">
-        <v>1772.0</v>
-      </c>
-      <c r="D99" t="n">
-        <v>1850.0</v>
-      </c>
-      <c r="E99" t="n">
-        <v>1723.0</v>
-      </c>
-      <c r="F99" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="100">
+      <c r="C99">
+        <v>1772</v>
+      </c>
+      <c r="D99">
+        <v>1850</v>
+      </c>
+      <c r="E99">
+        <v>1723</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>123</v>
       </c>
       <c r="B100" t="s">
         <v>23</v>
       </c>
-      <c r="C100" t="n">
-        <v>1750.0</v>
-      </c>
-      <c r="D100" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E100" t="n">
-        <v>1750.0</v>
-      </c>
-      <c r="F100" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="101">
+      <c r="C100">
+        <v>1750</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>1750</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>124</v>
       </c>
       <c r="B101" t="s">
         <v>23</v>
       </c>
-      <c r="C101" t="n">
-        <v>1738.0</v>
-      </c>
-      <c r="D101" t="n">
-        <v>1683.0</v>
-      </c>
-      <c r="E101" t="n">
-        <v>1750.0</v>
-      </c>
-      <c r="F101" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="102">
+      <c r="C101">
+        <v>1738</v>
+      </c>
+      <c r="D101">
+        <v>1683</v>
+      </c>
+      <c r="E101">
+        <v>1750</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>125</v>
       </c>
       <c r="B102" t="s">
         <v>49</v>
       </c>
-      <c r="C102" t="n">
-        <v>1734.0</v>
-      </c>
-      <c r="D102" t="n">
-        <v>1764.0</v>
-      </c>
-      <c r="E102" t="n">
-        <v>1722.0</v>
-      </c>
-      <c r="F102" t="n">
-        <v>1557.0</v>
-      </c>
-    </row>
-    <row r="103">
+      <c r="C102">
+        <v>1734</v>
+      </c>
+      <c r="D102">
+        <v>1764</v>
+      </c>
+      <c r="E102">
+        <v>1722</v>
+      </c>
+      <c r="F102">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>126</v>
       </c>
       <c r="B103" t="s">
         <v>49</v>
       </c>
-      <c r="C103" t="n">
-        <v>1726.0</v>
-      </c>
-      <c r="D103" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E103" t="n">
-        <v>1818.0</v>
-      </c>
-      <c r="F103" t="n">
-        <v>1677.0</v>
-      </c>
-    </row>
-    <row r="104">
+      <c r="C103">
+        <v>1726</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>1818</v>
+      </c>
+      <c r="F103">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>127</v>
       </c>
       <c r="B104" t="s">
         <v>23</v>
       </c>
-      <c r="C104" t="n">
-        <v>1700.0</v>
-      </c>
-      <c r="D104" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E104" t="n">
-        <v>1700.0</v>
-      </c>
-      <c r="F104" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="105">
+      <c r="C104">
+        <v>1700</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>1700</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>128</v>
       </c>
       <c r="B105" t="s">
         <v>23</v>
       </c>
-      <c r="C105" t="n">
-        <v>1700.0</v>
-      </c>
-      <c r="D105" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E105" t="n">
-        <v>1700.0</v>
-      </c>
-      <c r="F105" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="106">
+      <c r="C105">
+        <v>1700</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>1700</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>129</v>
       </c>
       <c r="B106" t="s">
         <v>23</v>
       </c>
-      <c r="C106" t="n">
-        <v>1700.0</v>
-      </c>
-      <c r="D106" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E106" t="n">
-        <v>1700.0</v>
-      </c>
-      <c r="F106" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="107">
+      <c r="C106">
+        <v>1700</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>1700</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>130</v>
       </c>
       <c r="B107" t="s">
         <v>23</v>
       </c>
-      <c r="C107" t="n">
-        <v>1700.0</v>
-      </c>
-      <c r="D107" t="n">
-        <v>1700.0</v>
-      </c>
-      <c r="E107" t="n">
-        <v>1700.0</v>
-      </c>
-      <c r="F107" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="108">
+      <c r="C107">
+        <v>1700</v>
+      </c>
+      <c r="D107">
+        <v>1700</v>
+      </c>
+      <c r="E107">
+        <v>1700</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>131</v>
       </c>
       <c r="B108" t="s">
         <v>23</v>
       </c>
-      <c r="C108" t="n">
-        <v>1700.0</v>
-      </c>
-      <c r="D108" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E108" t="n">
-        <v>1700.0</v>
-      </c>
-      <c r="F108" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="109">
+      <c r="C108">
+        <v>1700</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>1700</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>132</v>
       </c>
       <c r="B109" t="s">
         <v>23</v>
       </c>
-      <c r="C109" t="n">
-        <v>1700.0</v>
-      </c>
-      <c r="D109" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E109" t="n">
-        <v>1700.0</v>
-      </c>
-      <c r="F109" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="110">
+      <c r="C109">
+        <v>1700</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>1700</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>133</v>
       </c>
       <c r="B110" t="s">
         <v>23</v>
       </c>
-      <c r="C110" t="n">
-        <v>1700.0</v>
-      </c>
-      <c r="D110" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E110" t="n">
-        <v>1700.0</v>
-      </c>
-      <c r="F110" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="111">
+      <c r="C110">
+        <v>1700</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>1700</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>134</v>
       </c>
       <c r="B111" t="s">
         <v>37</v>
       </c>
-      <c r="C111" t="n">
-        <v>1616.0</v>
-      </c>
-      <c r="D111" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E111" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F111" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="112">
+      <c r="C111">
+        <v>1616</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>135</v>
       </c>
       <c r="B112" t="s">
         <v>23</v>
       </c>
-      <c r="C112" t="n">
-        <v>1544.0</v>
-      </c>
-      <c r="D112" t="n">
-        <v>1555.0</v>
-      </c>
-      <c r="E112" t="n">
-        <v>1517.0</v>
-      </c>
-      <c r="F112" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="113">
+      <c r="C112">
+        <v>1544</v>
+      </c>
+      <c r="D112">
+        <v>1555</v>
+      </c>
+      <c r="E112">
+        <v>1517</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>136</v>
       </c>
       <c r="B113" t="s">
         <v>49</v>
       </c>
-      <c r="C113" t="n">
-        <v>1400.0</v>
-      </c>
-      <c r="D113" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E113" t="n">
-        <v>1400.0</v>
-      </c>
-      <c r="F113" t="n">
-        <v>1400.0</v>
-      </c>
-    </row>
-    <row r="114">
+      <c r="C113">
+        <v>1400</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>1400</v>
+      </c>
+      <c r="F113">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>137</v>
       </c>
       <c r="B114" t="s">
         <v>23</v>
       </c>
-      <c r="C114" t="n">
-        <v>1320.0</v>
-      </c>
-      <c r="D114" t="n">
-        <v>1347.0</v>
-      </c>
-      <c r="E114" t="n">
-        <v>1233.0</v>
-      </c>
-      <c r="F114" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="115">
+      <c r="C114">
+        <v>1320</v>
+      </c>
+      <c r="D114">
+        <v>1347</v>
+      </c>
+      <c r="E114">
+        <v>1233</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>138</v>
       </c>
       <c r="B115" t="s">
         <v>23</v>
       </c>
-      <c r="C115" t="n">
-        <v>1265.0</v>
-      </c>
-      <c r="D115" t="n">
-        <v>1324.0</v>
-      </c>
-      <c r="E115" t="n">
-        <v>1128.0</v>
-      </c>
-      <c r="F115" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="116">
+      <c r="C115">
+        <v>1265</v>
+      </c>
+      <c r="D115">
+        <v>1324</v>
+      </c>
+      <c r="E115">
+        <v>1128</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>139</v>
       </c>
       <c r="B116" t="s">
         <v>23</v>
       </c>
-      <c r="C116" t="n">
-        <v>1204.0</v>
-      </c>
-      <c r="D116" t="n">
-        <v>1227.0</v>
-      </c>
-      <c r="E116" t="n">
-        <v>1083.0</v>
-      </c>
-      <c r="F116" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="117">
+      <c r="C116">
+        <v>1204</v>
+      </c>
+      <c r="D116">
+        <v>1227</v>
+      </c>
+      <c r="E116">
+        <v>1083</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>140</v>
       </c>
       <c r="B117" t="s">
         <v>23</v>
       </c>
-      <c r="C117" t="n">
-        <v>1200.0</v>
-      </c>
-      <c r="D117" t="n">
-        <v>1200.0</v>
-      </c>
-      <c r="E117" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F117" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="118">
+      <c r="C117">
+        <v>1200</v>
+      </c>
+      <c r="D117">
+        <v>1200</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>141</v>
       </c>
       <c r="B118" t="s">
         <v>23</v>
       </c>
-      <c r="C118" t="n">
-        <v>1096.0</v>
-      </c>
-      <c r="D118" t="n">
-        <v>1111.0</v>
-      </c>
-      <c r="E118" t="n">
-        <v>1043.0</v>
-      </c>
-      <c r="F118" t="n">
-        <v>1047.0</v>
-      </c>
-    </row>
-    <row r="119">
+      <c r="C118">
+        <v>1096</v>
+      </c>
+      <c r="D118">
+        <v>1111</v>
+      </c>
+      <c r="E118">
+        <v>1043</v>
+      </c>
+      <c r="F118">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>142</v>
       </c>
       <c r="B119" t="s">
         <v>49</v>
       </c>
-      <c r="C119" t="n">
-        <v>1081.0</v>
-      </c>
-      <c r="D119" t="n">
-        <v>1099.0</v>
-      </c>
-      <c r="E119" t="n">
-        <v>1029.0</v>
-      </c>
-      <c r="F119" t="n">
-        <v>1006.0</v>
-      </c>
-    </row>
-    <row r="120">
+      <c r="C119">
+        <v>1081</v>
+      </c>
+      <c r="D119">
+        <v>1099</v>
+      </c>
+      <c r="E119">
+        <v>1029</v>
+      </c>
+      <c r="F119">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>143</v>
       </c>
       <c r="B120" t="s">
         <v>23</v>
       </c>
-      <c r="C120" t="n">
-        <v>1019.0</v>
-      </c>
-      <c r="D120" t="n">
-        <v>1023.0</v>
-      </c>
-      <c r="E120" t="n">
-        <v>1011.0</v>
-      </c>
-      <c r="F120" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="121">
+      <c r="C120">
+        <v>1019</v>
+      </c>
+      <c r="D120">
+        <v>1023</v>
+      </c>
+      <c r="E120">
+        <v>1011</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>144</v>
       </c>
       <c r="B121" t="s">
         <v>49</v>
       </c>
-      <c r="C121" t="n">
-        <v>1003.0</v>
-      </c>
-      <c r="D121" t="n">
-        <v>1033.0</v>
-      </c>
-      <c r="E121" t="n">
-        <v>914.0</v>
-      </c>
-      <c r="F121" t="n">
-        <v>933.0</v>
-      </c>
-    </row>
-    <row r="122">
+      <c r="C121">
+        <v>1003</v>
+      </c>
+      <c r="D121">
+        <v>1033</v>
+      </c>
+      <c r="E121">
+        <v>914</v>
+      </c>
+      <c r="F121">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>145</v>
       </c>
       <c r="B122" t="s">
         <v>23</v>
       </c>
-      <c r="C122" t="n">
-        <v>931.0</v>
-      </c>
-      <c r="D122" t="n">
-        <v>937.0</v>
-      </c>
-      <c r="E122" t="n">
-        <v>894.0</v>
-      </c>
-      <c r="F122" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="123">
+      <c r="C122">
+        <v>931</v>
+      </c>
+      <c r="D122">
+        <v>937</v>
+      </c>
+      <c r="E122">
+        <v>894</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>146</v>
       </c>
       <c r="B123" t="s">
         <v>23</v>
       </c>
-      <c r="C123" t="n">
-        <v>919.0</v>
-      </c>
-      <c r="D123" t="n">
-        <v>942.0</v>
-      </c>
-      <c r="E123" t="n">
-        <v>844.0</v>
-      </c>
-      <c r="F123" t="n">
-        <v>800.0</v>
-      </c>
-    </row>
-    <row r="124">
+      <c r="C123">
+        <v>919</v>
+      </c>
+      <c r="D123">
+        <v>942</v>
+      </c>
+      <c r="E123">
+        <v>844</v>
+      </c>
+      <c r="F123">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>147</v>
       </c>
       <c r="B124" t="s">
         <v>23</v>
       </c>
-      <c r="C124" t="n">
-        <v>909.0</v>
-      </c>
-      <c r="D124" t="n">
-        <v>932.0</v>
-      </c>
-      <c r="E124" t="n">
-        <v>806.0</v>
-      </c>
-      <c r="F124" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="125">
+      <c r="C124">
+        <v>909</v>
+      </c>
+      <c r="D124">
+        <v>932</v>
+      </c>
+      <c r="E124">
+        <v>806</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>148</v>
       </c>
       <c r="B125" t="s">
         <v>23</v>
       </c>
-      <c r="C125" t="n">
-        <v>892.0</v>
-      </c>
-      <c r="D125" t="n">
-        <v>912.0</v>
-      </c>
-      <c r="E125" t="n">
-        <v>822.0</v>
-      </c>
-      <c r="F125" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="126">
+      <c r="C125">
+        <v>892</v>
+      </c>
+      <c r="D125">
+        <v>912</v>
+      </c>
+      <c r="E125">
+        <v>822</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>149</v>
       </c>
       <c r="B126" t="s">
         <v>49</v>
       </c>
-      <c r="C126" t="n">
-        <v>891.0</v>
-      </c>
-      <c r="D126" t="n">
-        <v>879.0</v>
-      </c>
-      <c r="E126" t="n">
-        <v>880.0</v>
-      </c>
-      <c r="F126" t="n">
-        <v>957.0</v>
-      </c>
-    </row>
-    <row r="127">
+      <c r="C126">
+        <v>891</v>
+      </c>
+      <c r="D126">
+        <v>879</v>
+      </c>
+      <c r="E126">
+        <v>880</v>
+      </c>
+      <c r="F126">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>150</v>
       </c>
       <c r="B127" t="s">
         <v>23</v>
       </c>
-      <c r="C127" t="n">
-        <v>863.0</v>
-      </c>
-      <c r="D127" t="n">
-        <v>890.0</v>
-      </c>
-      <c r="E127" t="n">
-        <v>788.0</v>
-      </c>
-      <c r="F127" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="128">
+      <c r="C127">
+        <v>863</v>
+      </c>
+      <c r="D127">
+        <v>890</v>
+      </c>
+      <c r="E127">
+        <v>788</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>151</v>
       </c>
       <c r="B128" t="s">
         <v>49</v>
       </c>
-      <c r="C128" t="n">
-        <v>861.0</v>
-      </c>
-      <c r="D128" t="n">
-        <v>862.0</v>
-      </c>
-      <c r="E128" t="n">
-        <v>854.0</v>
-      </c>
-      <c r="F128" t="n">
-        <v>890.0</v>
-      </c>
-    </row>
-    <row r="129">
+      <c r="C128">
+        <v>861</v>
+      </c>
+      <c r="D128">
+        <v>862</v>
+      </c>
+      <c r="E128">
+        <v>854</v>
+      </c>
+      <c r="F128">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>152</v>
       </c>
       <c r="B129" t="s">
         <v>23</v>
       </c>
-      <c r="C129" t="n">
-        <v>828.0</v>
-      </c>
-      <c r="D129" t="n">
-        <v>839.0</v>
-      </c>
-      <c r="E129" t="n">
-        <v>803.0</v>
-      </c>
-      <c r="F129" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="130">
+      <c r="C129">
+        <v>828</v>
+      </c>
+      <c r="D129">
+        <v>839</v>
+      </c>
+      <c r="E129">
+        <v>803</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>153</v>
       </c>
       <c r="B130" t="s">
         <v>23</v>
       </c>
-      <c r="C130" t="n">
-        <v>814.0</v>
-      </c>
-      <c r="D130" t="n">
-        <v>834.0</v>
-      </c>
-      <c r="E130" t="n">
-        <v>753.0</v>
-      </c>
-      <c r="F130" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="131">
+      <c r="C130">
+        <v>814</v>
+      </c>
+      <c r="D130">
+        <v>834</v>
+      </c>
+      <c r="E130">
+        <v>753</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>154</v>
       </c>
       <c r="B131" t="s">
         <v>23</v>
       </c>
-      <c r="C131" t="n">
-        <v>814.0</v>
-      </c>
-      <c r="D131" t="n">
-        <v>814.0</v>
-      </c>
-      <c r="E131" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F131" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="132">
+      <c r="C131">
+        <v>814</v>
+      </c>
+      <c r="D131">
+        <v>814</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>155</v>
       </c>
       <c r="B132" t="s">
         <v>49</v>
       </c>
-      <c r="C132" t="n">
-        <v>806.0</v>
-      </c>
-      <c r="D132" t="n">
-        <v>833.0</v>
-      </c>
-      <c r="E132" t="n">
-        <v>753.0</v>
-      </c>
-      <c r="F132" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="133">
+      <c r="C132">
+        <v>806</v>
+      </c>
+      <c r="D132">
+        <v>833</v>
+      </c>
+      <c r="E132">
+        <v>753</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>156</v>
       </c>
       <c r="B133" t="s">
         <v>23</v>
       </c>
-      <c r="C133" t="n">
-        <v>800.0</v>
-      </c>
-      <c r="D133" t="n">
-        <v>800.0</v>
-      </c>
-      <c r="E133" t="n">
-        <v>800.0</v>
-      </c>
-      <c r="F133" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="134">
+      <c r="C133">
+        <v>800</v>
+      </c>
+      <c r="D133">
+        <v>800</v>
+      </c>
+      <c r="E133">
+        <v>800</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>157</v>
       </c>
       <c r="B134" t="s">
         <v>23</v>
       </c>
-      <c r="C134" t="n">
-        <v>730.0</v>
-      </c>
-      <c r="D134" t="n">
-        <v>717.0</v>
-      </c>
-      <c r="E134" t="n">
-        <v>762.0</v>
-      </c>
-      <c r="F134" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="135">
+      <c r="C134">
+        <v>730</v>
+      </c>
+      <c r="D134">
+        <v>717</v>
+      </c>
+      <c r="E134">
+        <v>762</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>158</v>
       </c>
       <c r="B135" t="s">
         <v>49</v>
       </c>
-      <c r="C135" t="n">
-        <v>699.0</v>
-      </c>
-      <c r="D135" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E135" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F135" t="n">
-        <v>600.0</v>
-      </c>
-    </row>
-    <row r="136">
+      <c r="C135">
+        <v>699</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>159</v>
       </c>
       <c r="B136" t="s">
         <v>23</v>
       </c>
-      <c r="C136" t="n">
-        <v>671.0</v>
-      </c>
-      <c r="D136" t="n">
-        <v>676.0</v>
-      </c>
-      <c r="E136" t="n">
-        <v>661.0</v>
-      </c>
-      <c r="F136" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="137">
+      <c r="C136">
+        <v>671</v>
+      </c>
+      <c r="D136">
+        <v>676</v>
+      </c>
+      <c r="E136">
+        <v>661</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>160</v>
       </c>
       <c r="B137" t="s">
         <v>37</v>
       </c>
-      <c r="C137" t="n">
-        <v>606.0</v>
-      </c>
-      <c r="D137" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E137" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F137" t="n">
-        <v>0.0</v>
+      <c r="C137">
+        <v>606</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/TeamMatchVerify.xlsx
+++ b/target/classes/TeamMatchVerify.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13396" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15028" uniqueCount="161">
   <si>
     <t>1. WS</t>
   </si>
